--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.5.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.5.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.58528187960103</v>
+        <v>85.69321533923303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4002867271658033</v>
+        <v>0.4358946936078913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8858528187960104</v>
+        <v>0.8569321533923304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8652802544456037</v>
+        <v>0.8424471845215615</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.76227303004352</v>
+        <v>92.06610783830311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3252838706442465</v>
+        <v>0.2286028838706746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8876227303004353</v>
+        <v>0.920661078383031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8842894630324292</v>
+        <v>0.918888264819629</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.66908883294839</v>
+        <v>84.66093997352918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4014299357368145</v>
+        <v>0.4601332929897278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8666908883294837</v>
+        <v>0.8466093997352917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8565914282548031</v>
+        <v>0.8329481369903524</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.79402070952172</v>
+        <v>90.29498525073745</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393308651412966</v>
+        <v>0.2561563298649465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7879402070952171</v>
+        <v>0.9029498525073747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7681374133581285</v>
+        <v>0.9027482492533776</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.952802359882</v>
+        <v>94.10029498525073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1738361410893655</v>
+        <v>0.1834098775929306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9395280235988202</v>
+        <v>0.9410029498525073</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9389345034626284</v>
+        <v>0.9406619165688748</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.11244041903475</v>
+        <v>86.78621787385705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3186220944199401</v>
+        <v>0.3387488498740519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8811244041903477</v>
+        <v>0.8678621787385705</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8749357065632095</v>
+        <v>0.8665984118568639</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.72340591181585</v>
+        <v>86.96563119058123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3497918185210437</v>
+        <v>0.3272476779136923</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8572340591181584</v>
+        <v>0.8696563119058123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8526499227506342</v>
+        <v>0.8593199655700676</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.5103244837758</v>
+        <v>92.77441846382754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1581582019132232</v>
+        <v>0.1617791066585899</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9351032448377581</v>
+        <v>0.9277441846382753</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9342441066599931</v>
+        <v>0.9269561144755587</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.10654071402001</v>
+        <v>93.83480825958702</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1172894743406384</v>
+        <v>0.136776998048299</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9610654071402003</v>
+        <v>0.9383480825958703</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9609320684728671</v>
+        <v>0.9354439853457095</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.20648967551622</v>
+        <v>91.85909912715508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2735587446048157</v>
+        <v>0.2107852295332123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9020648967551622</v>
+        <v>0.9185909912715507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8961109186419099</v>
+        <v>0.9143057152736382</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.49557522123894</v>
+        <v>85.72323289993858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3009642428408066</v>
+        <v>0.4039162870962173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8849557522123893</v>
+        <v>0.8572323289993857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8851559324458256</v>
+        <v>0.8493955065136554</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.15391136601528</v>
+        <v>91.62743622349674</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2304872918097923</v>
+        <v>0.2277260531671345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9215391136601527</v>
+        <v>0.9162743622349675</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9171975819121618</v>
+        <v>0.9146096171894623</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.1740412979351</v>
+        <v>88.99739617124716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2913626861913751</v>
+        <v>0.2890095131006092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.891740412979351</v>
+        <v>0.8899739617124716</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8854340205388077</v>
+        <v>0.8833199752260341</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.61165754029014</v>
+        <v>84.83862317148072</v>
       </c>
       <c r="C15" t="n">
-        <v>0.307854875891159</v>
+        <v>0.3625066644201676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8761165754029013</v>
+        <v>0.8483862317148072</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8716823297492697</v>
+        <v>0.8496752865668281</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.26547807506985</v>
+        <v>87.40516786477392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2665387366587917</v>
+        <v>0.3096228927994767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8926547807506985</v>
+        <v>0.8740516786477391</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8851490520637595</v>
+        <v>0.8610857357444004</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.41592920353983</v>
+        <v>91.85909912715508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2279821644217009</v>
+        <v>0.2097967832766396</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9141592920353983</v>
+        <v>0.9185909912715509</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9124195997953087</v>
+        <v>0.9154160461696558</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.30226040017646</v>
+        <v>90.85995553594753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252129208540858</v>
+        <v>0.2563424834794811</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9130226040017646</v>
+        <v>0.9085995553594755</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9110484382015652</v>
+        <v>0.9057987445449636</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.78171091445428</v>
+        <v>95.31129162016973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1273871474346379</v>
+        <v>0.1589475446045981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9578171091445427</v>
+        <v>0.9531129162016972</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9563218626178255</v>
+        <v>0.9522205512894963</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88.85094161714201</v>
+        <v>84.57279042206247</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2673512286234957</v>
+        <v>0.4060161209393603</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8885094161714202</v>
+        <v>0.8457279042206247</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8836501673934617</v>
+        <v>0.841475271035749</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.98034585074265</v>
+        <v>76.38932862741026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6265398854079346</v>
+        <v>0.6606562041056653</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7798034585074266</v>
+        <v>0.7638932862741028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7690239500803561</v>
+        <v>0.7434631275158463</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.23336707064939</v>
+        <v>86.70308566683103</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3838284488146504</v>
+        <v>0.4126619966855894</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8723336707064939</v>
+        <v>0.8670308566683103</v>
       </c>
       <c r="E22" t="n">
-        <v>0.854996711565527</v>
+        <v>0.8506096424493663</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.25715620377339</v>
+        <v>86.22470782619227</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3175261730231189</v>
+        <v>0.3425394060711066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.872571562037734</v>
+        <v>0.8622470782619228</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8640496967814434</v>
+        <v>0.8605501949373338</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.76782671130373</v>
+        <v>91.71126047803182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2347950787644853</v>
+        <v>0.217030119847368</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9076782671130375</v>
+        <v>0.9171126047803181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9061611564374494</v>
+        <v>0.9159543728086955</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.29498525073747</v>
+        <v>88.70206489675516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2931340245879255</v>
+        <v>0.3137297895174319</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9029498525073747</v>
+        <v>0.8870206489675516</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8976936134635704</v>
+        <v>0.8846066823545297</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84.26405072708242</v>
+        <v>82.38972655472799</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4376749259487648</v>
+        <v>0.6361113361916371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8426405072708242</v>
+        <v>0.8238972655472798</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8332399630689806</v>
+        <v>0.7972151622239896</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.70049913926592</v>
+        <v>81.6236299621969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8403274982983324</v>
+        <v>0.7378788965055719</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7770049913926591</v>
+        <v>0.816236299621969</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7614988867853112</v>
+        <v>0.8038363282530916</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.03244837758112</v>
+        <v>82.77320738068669</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6634734153999792</v>
+        <v>0.5761505748067672</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8103244837758112</v>
+        <v>0.8277320738068669</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7924488035240447</v>
+        <v>0.8138696506394298</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.08554572271387</v>
+        <v>98.46607669616519</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04127773230702587</v>
+        <v>0.05226912319894837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9908554572271386</v>
+        <v>0.9846607669616519</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9908614237582153</v>
+        <v>0.9846760227488817</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.05604719764013</v>
+        <v>98.93805309734515</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02741424462246111</v>
+        <v>0.0277619515107934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9905604719764012</v>
+        <v>0.9893805309734514</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9905516617303107</v>
+        <v>0.9893952480634693</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.72566371681417</v>
+        <v>96.34218289085545</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09342393519976895</v>
+        <v>0.09861792829304931</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9672566371681416</v>
+        <v>0.9634218289085545</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9665316801227626</v>
+        <v>0.9622017480998464</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.19573698734419</v>
+        <v>89.01646784718437</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3381012868211974</v>
+        <v>0.3146275536523876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8919573698734419</v>
+        <v>0.8901646784718439</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8855740772559388</v>
+        <v>0.8839897619683453</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.461752498257971</v>
+        <v>5.127877331877397</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2604692374400277</v>
+        <v>0.171680810030233</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05461752498257971</v>
+        <v>0.05127877331877397</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05939656639268804</v>
+        <v>0.05653000034634502</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.35172449588664</v>
+        <v>86.2835318644625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2977971914069106</v>
+        <v>0.3581694794518019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8935172449588664</v>
+        <v>0.8628353186446249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8818088299642781</v>
+        <v>0.8580203294803261</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.64896755162242</v>
+        <v>87.97671260132009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2550238639969999</v>
+        <v>0.3630031168383235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9064896755162242</v>
+        <v>0.8797671260132007</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9029344606557975</v>
+        <v>0.8728611153941113</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.24778761061947</v>
+        <v>85.39857611225011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.455014357555774</v>
+        <v>0.4811505304096499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8424778761061947</v>
+        <v>0.853985761122501</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8294175133384016</v>
+        <v>0.8385835012559971</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.25386032751149</v>
+        <v>81.89880535298748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3364624607454365</v>
+        <v>0.4269861757444839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8625386032751148</v>
+        <v>0.8189880535298748</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8621956422064759</v>
+        <v>0.8076722240349568</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.44837758112094</v>
+        <v>90.97379735118815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2257568802529325</v>
+        <v>0.2470731023388605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9244837758112094</v>
+        <v>0.9097379735118816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9234359772679401</v>
+        <v>0.9086877766533616</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.42875803423905</v>
+        <v>85.40169032604088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4199309767767166</v>
+        <v>0.3612561254451672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8442875803423906</v>
+        <v>0.8540169032604089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8326949793102306</v>
+        <v>0.849530973134048</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.22901582193617</v>
+        <v>83.51188159067121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4437420114515893</v>
+        <v>0.4161259907123167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8422901582193617</v>
+        <v>0.8351188159067121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.822610549990719</v>
+        <v>0.8177399282608711</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.59638059152761</v>
+        <v>88.41261602609019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1967184377247274</v>
+        <v>0.2935543505348809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.915963805915276</v>
+        <v>0.884126160260902</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9155367457410645</v>
+        <v>0.883447554012516</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.39284941911262</v>
+        <v>92.59794634901687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1666150714523004</v>
+        <v>0.2183593204941644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9339284941911263</v>
+        <v>0.9259794634901686</v>
       </c>
       <c r="E10" t="n">
-        <v>0.932389593103798</v>
+        <v>0.9260021549873449</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.03019057258281</v>
+        <v>90.94395280235987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2406549871433526</v>
+        <v>0.1990108606793607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.900301905725828</v>
+        <v>0.9094395280235987</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8969183295018525</v>
+        <v>0.9078310090205178</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.87037950155278</v>
+        <v>84.39562625974273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3881950064824196</v>
+        <v>0.4183251211574922</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8587037950155277</v>
+        <v>0.8439562625974274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8527825557126578</v>
+        <v>0.8458708823571964</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.47492625368731</v>
+        <v>88.52922603136706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2258506697059298</v>
+        <v>0.2967855064198375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9147492625368731</v>
+        <v>0.8852922603136705</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9101835663004761</v>
+        <v>0.8789562082321218</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.1171203903148</v>
+        <v>88.0543084282736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2641620543921211</v>
+        <v>0.2806794085462267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.891171203903148</v>
+        <v>0.880543084282736</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8893262215246892</v>
+        <v>0.8760509641796446</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.03695533698388</v>
+        <v>82.12787307848683</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5622215125399331</v>
+        <v>0.4218040374418099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8203695533698389</v>
+        <v>0.8212787307848683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7987347105895062</v>
+        <v>0.8226744790987549</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.57436483014558</v>
+        <v>80.68971184871842</v>
       </c>
       <c r="C16" t="n">
-        <v>1.221124660161634</v>
+        <v>0.4733485436455035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7657436483014559</v>
+        <v>0.8068971184871842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7553736358382165</v>
+        <v>0.8028164435633766</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.53687315634218</v>
+        <v>91.15269163228056</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2076148835069034</v>
+        <v>0.2231456235051155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9253687315634218</v>
+        <v>0.9115269163228057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9238126862602399</v>
+        <v>0.9108170843791523</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88.5309561501397</v>
+        <v>86.35273661536864</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3252977460722074</v>
+        <v>0.4170585264610661</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8853095615013971</v>
+        <v>0.8635273661536864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8743346748472833</v>
+        <v>0.839735827329893</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.71681415929204</v>
+        <v>91.57328350591268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2021217685449907</v>
+        <v>0.2277035467113213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9371681415929203</v>
+        <v>0.9157328350591267</v>
       </c>
       <c r="E19" t="n">
-        <v>0.933232788397351</v>
+        <v>0.9151499850574052</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.8450332615334</v>
+        <v>82.42034965700395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3485906725904594</v>
+        <v>0.4796448478552823</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8584503326153341</v>
+        <v>0.8242034965700394</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8497830136807272</v>
+        <v>0.8215252096013401</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.06589157345653</v>
+        <v>70.60917481985138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5823803098251422</v>
+        <v>0.762914547820886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7706589157345652</v>
+        <v>0.7060917481985138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7592825148056125</v>
+        <v>0.6821116386496979</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.08585714409294</v>
+        <v>83.1413766555074</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4650101638709505</v>
+        <v>0.5298958367978532</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8508585714409295</v>
+        <v>0.831413766555074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8326284022409673</v>
+        <v>0.8243061924660813</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.22418879056048</v>
+        <v>85.72600108997483</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3711213537297833</v>
+        <v>0.3781552913521106</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8622418879056047</v>
+        <v>0.8572600108997482</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8576437520767696</v>
+        <v>0.853688862954791</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>88.9734340262459</v>
+        <v>89.1745603335669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2724948198317785</v>
+        <v>0.2583551951177167</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8897343402624589</v>
+        <v>0.891745603335669</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8826651421530064</v>
+        <v>0.8909157735446378</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.38053097345133</v>
+        <v>82.9272744573915</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2854322651323552</v>
+        <v>0.47019735876432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8938053097345133</v>
+        <v>0.829272744573915</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8898424083164036</v>
+        <v>0.8232641135736729</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.40791875362244</v>
+        <v>87.40430280538759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.392330267043144</v>
+        <v>0.3393988446778773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8540791875362244</v>
+        <v>0.8740430280538758</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8410259447345549</v>
+        <v>0.8599057722296852</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.93371049922578</v>
+        <v>80.00017301187727</v>
       </c>
       <c r="C27" t="n">
-        <v>0.825772789993789</v>
+        <v>0.810189189473264</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7693371049922577</v>
+        <v>0.8000017301187727</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7580406469142147</v>
+        <v>0.793338199890637</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.06576181454857</v>
+        <v>81.94811373800812</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6398839688898685</v>
+        <v>0.6220458823411414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8206576181454857</v>
+        <v>0.8194811373800812</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8092125209944442</v>
+        <v>0.8042936133213819</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.82005899705015</v>
+        <v>96.51917404129793</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03877521805776875</v>
+        <v>0.09452596761693713</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9882005899705014</v>
+        <v>0.9651917404129794</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9882061721543612</v>
+        <v>0.9650043138805074</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.55162241887906</v>
+        <v>94.21880812117752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06115894370229095</v>
+        <v>0.1408633701211026</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9755162241887906</v>
+        <v>0.9421880812117752</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9755542841613181</v>
+        <v>0.9420641758860645</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.28318584070796</v>
+        <v>95.60471976401179</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1055668666757962</v>
+        <v>0.1184207609933907</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9628318584070797</v>
+        <v>0.956047197640118</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9618202582129169</v>
+        <v>0.9549558190925153</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.87078319593307</v>
+        <v>86.5322998757198</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3607607393085335</v>
+        <v>0.3709382153156422</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8787078319593306</v>
+        <v>0.865322998757198</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8714476173665424</v>
+        <v>0.85926073751742</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.58537801259317</v>
+        <v>5.273109193658199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2322814974519853</v>
+        <v>0.1662002632436945</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05585378012593171</v>
+        <v>0.05273109193658198</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06023663841898618</v>
+        <v>0.05697712770408265</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.65451258228877</v>
+        <v>85.40255538542721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5114208963544418</v>
+        <v>0.3639300663334628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8165451258228877</v>
+        <v>0.8540255538542721</v>
       </c>
       <c r="E2" t="n">
-        <v>0.803677701125444</v>
+        <v>0.8492471969156666</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.2595783700551</v>
+        <v>81.17328004567514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3707719034282491</v>
+        <v>0.5040704334814412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8725957837005509</v>
+        <v>0.8117328004567513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8676844179210829</v>
+        <v>0.8028665859335474</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.92763778233375</v>
+        <v>84.30713068452148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4709204690414481</v>
+        <v>0.4978628297530425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8492763778233374</v>
+        <v>0.8430713068452149</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8367422053843786</v>
+        <v>0.8182239781018582</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.3417936141316</v>
+        <v>81.06869436586821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4679315702504634</v>
+        <v>0.4049311347926657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8134179361413161</v>
+        <v>0.8106869436586821</v>
       </c>
       <c r="E5" t="n">
-        <v>0.807151690405569</v>
+        <v>0.8082517442450706</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.63803320097925</v>
+        <v>87.49366343999516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3640393488109112</v>
+        <v>0.3589386343024671</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8663803320097925</v>
+        <v>0.8749366343999515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8626866853408789</v>
+        <v>0.8754408954536729</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.57918321092743</v>
+        <v>79.45146584313014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4343454288629194</v>
+        <v>0.5130262058383475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8357918321092743</v>
+        <v>0.7945146584313013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8333809855102363</v>
+        <v>0.7886944067366664</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.75184906443828</v>
+        <v>83.25106618569365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.371107487588597</v>
+        <v>0.4149726155480796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8375184906443828</v>
+        <v>0.8325106618569365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8332394273841454</v>
+        <v>0.8161379185869843</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.70362200365055</v>
+        <v>86.16899800171282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2797965922751852</v>
+        <v>0.3413225305189068</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8870362200365054</v>
+        <v>0.8616899800171283</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8815456311128603</v>
+        <v>0.8613249280759167</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.65451258228877</v>
+        <v>88.98052751321379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2174024900940519</v>
+        <v>0.2897623624619882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9165451258228877</v>
+        <v>0.8898052751321378</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9166243140195969</v>
+        <v>0.8890796859393657</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.54277286135694</v>
+        <v>88.79056047197641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7078655399467227</v>
+        <v>0.2588057963022342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8454277286135692</v>
+        <v>0.887905604719764</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8300652037404441</v>
+        <v>0.876885813438831</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.63473732471735</v>
+        <v>84.48429484684124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4124131084555605</v>
+        <v>0.4151807197447245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8563473732471735</v>
+        <v>0.8448429484684123</v>
       </c>
       <c r="E12" t="n">
-        <v>0.85760622089261</v>
+        <v>0.8464248051345381</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.03088262009187</v>
+        <v>87.79245495203246</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2587485375193258</v>
+        <v>0.3199413125868887</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9003088262009186</v>
+        <v>0.8779245495203245</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8970714312673265</v>
+        <v>0.8764963635722264</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.39961418351371</v>
+        <v>78.126281369216</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3762429415675191</v>
+        <v>0.5821594262806078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8539961418351369</v>
+        <v>0.78126281369216</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8416807511753845</v>
+        <v>0.757446135314421</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.53823995017258</v>
+        <v>78.94843380998105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4251150364677111</v>
+        <v>0.5226388558745384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8053823995017257</v>
+        <v>0.7894843380998106</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8070555819671903</v>
+        <v>0.7873843893145481</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.22205209387624</v>
+        <v>77.65828424121317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5440650315023958</v>
+        <v>0.5686242027829091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7922205209387625</v>
+        <v>0.7765828424121316</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7913432628316071</v>
+        <v>0.7694370439896037</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.62432200970596</v>
+        <v>89.88200589970502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2421343866328243</v>
+        <v>0.2862675043089742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9162432200970597</v>
+        <v>0.8988200589970502</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9137668203410575</v>
+        <v>0.8940878538677165</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.40704504364224</v>
+        <v>80.86999022482894</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3693926181476854</v>
+        <v>0.4754524808124188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8440704504364224</v>
+        <v>0.8086999022482892</v>
       </c>
       <c r="E18" t="n">
-        <v>0.836297346388003</v>
+        <v>0.790832141687272</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.17421430981237</v>
+        <v>91.47527227744185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3095256758970208</v>
+        <v>0.2207499861241862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8917421430981237</v>
+        <v>0.9147527227744184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8879120228604114</v>
+        <v>0.914896223817842</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.98698085623577</v>
+        <v>80.09576207406639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3956680851212392</v>
+        <v>0.5815078511989366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8498698085623578</v>
+        <v>0.8009576207406639</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8423615254721166</v>
+        <v>0.7854605649271095</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.61975449614616</v>
+        <v>65.26501094300124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6481092834845186</v>
+        <v>0.9540398876182735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7361975449614616</v>
+        <v>0.6526501094300123</v>
       </c>
       <c r="E21" t="n">
-        <v>0.727198130056091</v>
+        <v>0.629918311161247</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.01210218081471</v>
+        <v>79.8475765361292</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6338708528007071</v>
+        <v>0.6358225361754497</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7901210218081471</v>
+        <v>0.7984757653612921</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7773927019421747</v>
+        <v>0.784768832107819</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.66091402174759</v>
+        <v>85.78499814012233</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4682703472363453</v>
+        <v>0.4224490500210474</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8166091402174759</v>
+        <v>0.8578499814012233</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8123714109939695</v>
+        <v>0.8479844743949373</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.75811209439527</v>
+        <v>81.66420124741563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3267552634575016</v>
+        <v>0.4878387967435022</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8775811209439528</v>
+        <v>0.8166420124741564</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8746335758743979</v>
+        <v>0.8079943382745313</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.30971721208661</v>
+        <v>81.68487616674885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4407767435691009</v>
+        <v>0.5502112984734897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8330971721208661</v>
+        <v>0.8168487616674884</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8298146588451711</v>
+        <v>0.7929559941577997</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.07391932456163</v>
+        <v>85.45826520990666</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4126995735747186</v>
+        <v>0.3673583319061436</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8507391932456164</v>
+        <v>0.8545826520990666</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8420232312636722</v>
+        <v>0.8437200617535281</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.67637263298126</v>
+        <v>78.11780378722999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8185806741181295</v>
+        <v>0.7967480225895998</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7867637263298126</v>
+        <v>0.7811780378722999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7768007736071256</v>
+        <v>0.7715425130741547</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.0032958762619</v>
+        <v>73.10244898312268</v>
       </c>
       <c r="C28" t="n">
-        <v>0.77156824124977</v>
+        <v>0.9921409766810635</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8100329587626189</v>
+        <v>0.7310244898312269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7971266869702468</v>
+        <v>0.7144511083401112</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.99115044247787</v>
+        <v>95.1048019446535</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1014022419250978</v>
+        <v>0.1372021576874734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9699115044247787</v>
+        <v>0.9510480194465349</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9698222303972484</v>
+        <v>0.9513856730632864</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.07876365712505</v>
+        <v>92.09543335149958</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1249247518185105</v>
+        <v>0.172218112938026</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9507876365712506</v>
+        <v>0.9209543335149958</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9502272797111523</v>
+        <v>0.9198729693519651</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.72271386430678</v>
+        <v>93.45357658803277</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1299064604512144</v>
+        <v>0.1956871590135051</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9572271386430679</v>
+        <v>0.9345357658803277</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9551803635664975</v>
+        <v>0.9299048233833007</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.43261331557078</v>
+        <v>83.56665715101342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4135257193883295</v>
+        <v>0.4543953759631466</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8543261331557077</v>
+        <v>0.8356665715101342</v>
       </c>
       <c r="E32" t="n">
-        <v>0.848682808945603</v>
+        <v>0.826770592470518</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.268310346556418</v>
+        <v>6.178586779959415</v>
       </c>
       <c r="C33" t="n">
-        <v>0.174983505779839</v>
+        <v>0.2012739305446379</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05268310346556417</v>
+        <v>0.06178586779959415</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05501825405836862</v>
+        <v>0.06684782853454367</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.17001877178868</v>
+        <v>77.88319968165816</v>
       </c>
       <c r="C2" t="n">
-        <v>1.101159560117958</v>
+        <v>0.6088564481430997</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7417001877178868</v>
+        <v>0.7788319968165814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7196073222579888</v>
+        <v>0.7731888437526778</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.2003477538733</v>
+        <v>72.6232060830976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5433343726520736</v>
+        <v>0.7439436685255107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.802003477538733</v>
+        <v>0.726232060830976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7865972504667189</v>
+        <v>0.7133432412658646</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.51116359138055</v>
+        <v>77.15179197051877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.50756421466358</v>
+        <v>0.5478740263419846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8051116359138055</v>
+        <v>0.7715179197051878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7927622165876337</v>
+        <v>0.7651817930777236</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.92809626380851</v>
+        <v>69.88814782134793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7733122975255051</v>
+        <v>0.7004121284931898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6792809626380851</v>
+        <v>0.6988814782134793</v>
       </c>
       <c r="E5" t="n">
-        <v>0.658202173095359</v>
+        <v>0.6735128150230336</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.24027024455229</v>
+        <v>77.92723120442218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7035259993125995</v>
+        <v>0.5332769597570102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7524027024455229</v>
+        <v>0.7792723120442219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7413799776952634</v>
+        <v>0.7780991844173496</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.97229214785595</v>
+        <v>66.55827472555991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8895275938014189</v>
+        <v>1.043280724994838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6697229214785595</v>
+        <v>0.6655827472555991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6434197794304121</v>
+        <v>0.6488878262392856</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.28171523975121</v>
+        <v>77.39937196688552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5787304403709035</v>
+        <v>0.5254992335181062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7628171523975121</v>
+        <v>0.7739937196688553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7577356647426013</v>
+        <v>0.7599078442149066</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.98469709945587</v>
+        <v>79.87413385928944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4855563263631969</v>
+        <v>0.5012102152143295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8098469709945588</v>
+        <v>0.7987413385928944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.802246703687881</v>
+        <v>0.7858550736584589</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.7849808389346</v>
+        <v>84.19553802368532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3940778985095676</v>
+        <v>0.4032407688365008</v>
       </c>
       <c r="D10" t="n">
-        <v>0.837849808389346</v>
+        <v>0.8419553802368533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8409527490933251</v>
+        <v>0.8383619551547875</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.75927992456681</v>
+        <v>85.73603577885622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4356178452881674</v>
+        <v>0.3319757188747948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8275927992456682</v>
+        <v>0.8573603577885622</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8289886928863135</v>
+        <v>0.8565817767305663</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.76921080632185</v>
+        <v>80.94914315867784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5532812039678296</v>
+        <v>0.5267853206334014</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8076921080632186</v>
+        <v>0.8094914315867785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8111166331783364</v>
+        <v>0.8112664847056751</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.83824254535074</v>
+        <v>84.02598638396526</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5187873471528291</v>
+        <v>0.425860209390521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8083824254535074</v>
+        <v>0.8402598638396526</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8102526941474885</v>
+        <v>0.8402169061906047</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.54861201221465</v>
+        <v>68.15975916746685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7946843668042372</v>
+        <v>0.9901846264178553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6954861201221464</v>
+        <v>0.6815975916746685</v>
       </c>
       <c r="E14" t="n">
-        <v>0.672947941926868</v>
+        <v>0.6420086448163241</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.72801667834497</v>
+        <v>70.50346456284224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8571660955746969</v>
+        <v>0.7655681115885576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6872801667834497</v>
+        <v>0.7050346456284224</v>
       </c>
       <c r="E15" t="n">
-        <v>0.655390586806295</v>
+        <v>0.6922965659318281</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.32148201974066</v>
+        <v>66.01986176351006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7168549778560798</v>
+        <v>1.023773617235323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7332148201974066</v>
+        <v>0.6601986176351007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7241094958430692</v>
+        <v>0.6420385758910139</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>88.17247554044584</v>
+        <v>87.40482184101938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3245727488470341</v>
+        <v>0.3111515431432054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8817247554044585</v>
+        <v>0.8740482184101939</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8752092625629633</v>
+        <v>0.870320067535461</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.8102492236092</v>
+        <v>70.94213617764861</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7508391898746292</v>
+        <v>0.7150328904467946</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7481024922360919</v>
+        <v>0.709421361776486</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7304597158400237</v>
+        <v>0.6949950196614756</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.43151757368143</v>
+        <v>82.83618370401128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4368229907394076</v>
+        <v>0.4818653836846352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8343151757368144</v>
+        <v>0.8283618370401129</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8324140161207663</v>
+        <v>0.8284158723101802</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74.04925648145745</v>
+        <v>70.60554157042881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7532602097218235</v>
+        <v>0.7162679300953945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7404925648145746</v>
+        <v>0.7060554157042882</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7203815974806635</v>
+        <v>0.7024815401919617</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.09673959117293</v>
+        <v>63.18454311888511</v>
       </c>
       <c r="C21" t="n">
-        <v>1.150693721463904</v>
+        <v>1.002756660462668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6309673959117293</v>
+        <v>0.6318454311888512</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5886539884173387</v>
+        <v>0.6165504575025752</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.3587747298852</v>
+        <v>77.2701320945683</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8481512463341156</v>
+        <v>0.6596822505195935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7435877472988521</v>
+        <v>0.7727013209456829</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7223347800426657</v>
+        <v>0.7645649875682943</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.73011012205987</v>
+        <v>69.22395522452616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8036900252103806</v>
+        <v>0.7967842434843382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7073011012205987</v>
+        <v>0.6922395522452616</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6864732674457074</v>
+        <v>0.6750072068623629</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.77716935267605</v>
+        <v>75.85368385539667</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5050882635172457</v>
+        <v>0.6792935439695915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8077716935267606</v>
+        <v>0.7585368385539667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8024525553320423</v>
+        <v>0.74406526377926</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.93796659140651</v>
+        <v>72.81274059464182</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8183793369680643</v>
+        <v>0.6551383773485819</v>
       </c>
       <c r="D25" t="n">
-        <v>0.689379665914065</v>
+        <v>0.7281274059464182</v>
       </c>
       <c r="E25" t="n">
-        <v>0.679853795384593</v>
+        <v>0.7166254459086716</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.54465004022526</v>
+        <v>75.49606830508915</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4658016204523543</v>
+        <v>0.6156710636879628</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8154465004022526</v>
+        <v>0.7549606830508914</v>
       </c>
       <c r="E26" t="n">
-        <v>0.808412358159328</v>
+        <v>0.74731333365069</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71.84396058789436</v>
+        <v>69.33502884973053</v>
       </c>
       <c r="C27" t="n">
-        <v>1.022980866084496</v>
+        <v>1.072642534909149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7184396058789436</v>
+        <v>0.6933502884973054</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7195896248686071</v>
+        <v>0.6768717903062764</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.46415626432756</v>
+        <v>71.89707523421484</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7093425488099456</v>
+        <v>0.8709534402936697</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7646415626432754</v>
+        <v>0.7189707523421482</v>
       </c>
       <c r="E28" t="n">
-        <v>0.75362370996316</v>
+        <v>0.7084762682805298</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.65170978987707</v>
+        <v>90.21375617436136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3219282106185953</v>
+        <v>0.2511867070958639</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8765170978987709</v>
+        <v>0.9021375617436137</v>
       </c>
       <c r="E29" t="n">
-        <v>0.876399650764364</v>
+        <v>0.9017409927524953</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.26477737696692</v>
+        <v>88.85474787844186</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3002269669273422</v>
+        <v>0.244482156005688</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8826477737696694</v>
+        <v>0.8885474787844185</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8768662305702675</v>
+        <v>0.8847928311052284</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.01856417443057</v>
+        <v>96.49054057561052</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1148382795295523</v>
+        <v>0.1243500975254089</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9601856417443058</v>
+        <v>0.9649054057561053</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9589181186316184</v>
+        <v>0.9646371748545661</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.40635011260188</v>
+        <v>76.71053671167857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6393265588353177</v>
+        <v>0.628966686687919</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7740635011260191</v>
+        <v>0.767105367116786</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7625917517809887</v>
+        <v>0.7572535261113377</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.352375868320191</v>
+        <v>7.942588429971915</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2431563484672184</v>
+        <v>0.2476212197644804</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07352375868320195</v>
+        <v>0.07942588429971917</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08200063285119139</v>
+        <v>0.08593304217998574</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.26715629027933</v>
+        <v>69.64645022880822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6535344750309984</v>
+        <v>0.7629820713152488</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7326715629027933</v>
+        <v>0.6964645022880821</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7204118258746066</v>
+        <v>0.6764277103874431</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.5744080831149</v>
+        <v>63.20530454415696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7414484790215889</v>
+        <v>1.09652971815085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.715744080831149</v>
+        <v>0.6320530454415696</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7059945036663089</v>
+        <v>0.615879697697343</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08340902602964</v>
+        <v>76.18335798752585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6799764565502604</v>
+        <v>0.5859886648133397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7208340902602963</v>
+        <v>0.7618335798752585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6930490367691118</v>
+        <v>0.7554013957993349</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.37605861642402</v>
+        <v>64.52841287554391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8244090075915059</v>
+        <v>0.7353833657999834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6237605861642402</v>
+        <v>0.6452841287554391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6053341593980057</v>
+        <v>0.6250747454748955</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.9984947966678</v>
+        <v>67.29072050796287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.868450332681338</v>
+        <v>0.7995011201749246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6599849479666779</v>
+        <v>0.6729072050796288</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6406044854489873</v>
+        <v>0.6571407458687736</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.66790370158911</v>
+        <v>59.70068945233091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9034061988194784</v>
+        <v>1.023924245685339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5966790370158911</v>
+        <v>0.597006894523309</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5938903479231954</v>
+        <v>0.5788450790686815</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.32824678414173</v>
+        <v>74.5694166904558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.630125695397146</v>
+        <v>0.6493479307352876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7532824678414174</v>
+        <v>0.745694166904558</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7241095219283201</v>
+        <v>0.7294240789822802</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.09070147665638</v>
+        <v>70.61436517616934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5689942248010387</v>
+        <v>0.6585319578414783</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7509070147665637</v>
+        <v>0.7061436517616935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7500833764476503</v>
+        <v>0.6943414911601951</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.00205019074559</v>
+        <v>81.3071047327399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5770525450886149</v>
+        <v>0.4559805728960782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.770020501907456</v>
+        <v>0.813071047327399</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7716162159905238</v>
+        <v>0.8055068738505821</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.05353852541978</v>
+        <v>79.1415150650092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5184657613436381</v>
+        <v>0.6322607088834047</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7905353852541978</v>
+        <v>0.7914151506500922</v>
       </c>
       <c r="E11" t="n">
-        <v>0.787274439418313</v>
+        <v>0.7819059900632171</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.34319501033745</v>
+        <v>69.42646562686528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7123459979891777</v>
+        <v>0.8676715819785992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7334319501033746</v>
+        <v>0.6942646562686529</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7339261842998338</v>
+        <v>0.6897527779889043</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.51975363108677</v>
+        <v>70.93677280945337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7134441082676252</v>
+        <v>0.8032722294330596</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7351975363108677</v>
+        <v>0.7093677280945336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7236399723625825</v>
+        <v>0.7022721678264192</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.5421673197865</v>
+        <v>64.36344605057137</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8621183071285486</v>
+        <v>0.9527194159726301</v>
       </c>
       <c r="D14" t="n">
-        <v>0.645421673197865</v>
+        <v>0.6436344605057137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6293101093322577</v>
+        <v>0.6197228498393828</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.16283877888216</v>
+        <v>60.93028486405592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9228677629182735</v>
+        <v>0.9431273822983106</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6416283877888217</v>
+        <v>0.6093028486405592</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6095030015901027</v>
+        <v>0.5870817670515469</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.84250728812533</v>
+        <v>63.63411448195918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8669162072241307</v>
+        <v>0.918625182658434</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6384250728812533</v>
+        <v>0.6363411448195919</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6359226266210817</v>
+        <v>0.6303235041169412</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.72472945267693</v>
+        <v>74.68498862446907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5577837543241912</v>
+        <v>0.7492581326514482</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7872472945267692</v>
+        <v>0.7468498862446907</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7843121175345018</v>
+        <v>0.7318023870212984</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.33234716563292</v>
+        <v>68.36720040830804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7401212450737754</v>
+        <v>0.7315545665100217</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6933234716563292</v>
+        <v>0.6836720040830804</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6870887942337285</v>
+        <v>0.6633094053126044</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.45233090251647</v>
+        <v>79.27170650265141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5166236860367158</v>
+        <v>0.4810314528644085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7945233090251647</v>
+        <v>0.7927170650265141</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7948997176948642</v>
+        <v>0.7869043387259566</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.89391776745474</v>
+        <v>60.82362304172182</v>
       </c>
       <c r="C20" t="n">
-        <v>1.138046347225706</v>
+        <v>1.003466234107812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5689391776745474</v>
+        <v>0.6082362304172182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5506746255362064</v>
+        <v>0.594045398824893</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.01095165183089</v>
+        <v>60.98807083106256</v>
       </c>
       <c r="C21" t="n">
-        <v>1.302958457521163</v>
+        <v>1.202027730084956</v>
       </c>
       <c r="D21" t="n">
-        <v>0.560109516518309</v>
+        <v>0.6098807083106255</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5297061166542379</v>
+        <v>0.5698142464254865</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.40927689685897</v>
+        <v>74.10124655057569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6966142130394777</v>
+        <v>0.7685782052576542</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7240927689685897</v>
+        <v>0.7410124655057569</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7246892623171229</v>
+        <v>0.7265169166354946</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62.48228790906496</v>
+        <v>61.84387408195573</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9204969746371109</v>
+        <v>1.040207255631685</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6248228790906496</v>
+        <v>0.6184387408195573</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6059162211208478</v>
+        <v>0.5946772077604519</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.20242389640049</v>
+        <v>73.05910950786772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7348277183870475</v>
+        <v>0.6462750611205895</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7020242389640049</v>
+        <v>0.7305910950786771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6945426647131672</v>
+        <v>0.724280549854754</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.59716779556917</v>
+        <v>64.63412313255306</v>
       </c>
       <c r="C25" t="n">
-        <v>1.008169499288003</v>
+        <v>0.8407259990771612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6259716779556916</v>
+        <v>0.6463412313255306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6050328817364307</v>
+        <v>0.6422644258287222</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.38374034377459</v>
+        <v>70.7587435877473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7928927414119243</v>
+        <v>0.7547136244674524</v>
       </c>
       <c r="D26" t="n">
-        <v>0.703837403437746</v>
+        <v>0.707587435877473</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6846127384116979</v>
+        <v>0.6931983226997143</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>64.22166281715241</v>
+        <v>65.38862792930735</v>
       </c>
       <c r="C27" t="n">
-        <v>1.114543505106121</v>
+        <v>1.029362263592581</v>
       </c>
       <c r="D27" t="n">
-        <v>0.642216628171524</v>
+        <v>0.6538862792930734</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6354435244390761</v>
+        <v>0.6394073027046738</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.83736018477668</v>
+        <v>66.24996756027301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7837533452237646</v>
+        <v>0.8284911042079329</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6883736018477669</v>
+        <v>0.6624996756027302</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6718333743168777</v>
+        <v>0.6429436523636475</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.0787550065312</v>
+        <v>82.69924480315574</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3993602418651183</v>
+        <v>0.4433175662222008</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8407875500653119</v>
+        <v>0.8269924480315574</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8402163002696048</v>
+        <v>0.8257378807865337</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.69682263687402</v>
+        <v>85.20385124438792</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4130436276725959</v>
+        <v>0.3556952650185849</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8269682263687402</v>
+        <v>0.8520385124438793</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8219273286073921</v>
+        <v>0.8455754275777914</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.25417174889057</v>
+        <v>94.01768181385651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2386978590938573</v>
+        <v>0.1898961942759342</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9225417174889057</v>
+        <v>0.9401768181385652</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9217846643509585</v>
+        <v>0.939873946461487</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.71434585650972</v>
+        <v>70.58568269045004</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7467162925253312</v>
+        <v>0.7650148934575799</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7071434585650972</v>
+        <v>0.7058568269045001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6959116713002532</v>
+        <v>0.6923150761386483</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.233694443387202</v>
+        <v>8.182706785787929</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2256125214092032</v>
+        <v>0.2275004188333745</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08233694443387202</v>
+        <v>0.08182706785787931</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08823984448765092</v>
+        <v>0.0874214371025373</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.27647297987007</v>
+        <v>63.16283012828831</v>
       </c>
       <c r="C2" t="n">
-        <v>1.135179943420614</v>
+        <v>0.8186831666777531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6027647297987007</v>
+        <v>0.6316283012828831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5708707640418849</v>
+        <v>0.6015603203829528</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.35380063841383</v>
+        <v>59.26634313445618</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08815061300993</v>
+        <v>0.8944242383042971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5935380063841382</v>
+        <v>0.5926634313445618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5559080963965337</v>
+        <v>0.587005796755493</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.05422192233496</v>
+        <v>59.81020597063989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.698923005660375</v>
+        <v>0.9368501799801985</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6805422192233497</v>
+        <v>0.5981020597063988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6706422701094287</v>
+        <v>0.5662745035025221</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.42926841927699</v>
+        <v>53.83359717644616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9656679481267929</v>
+        <v>0.9457445035378138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5342926841927699</v>
+        <v>0.5383359717644616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4957706000043447</v>
+        <v>0.5102069838924319</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.77150321369562</v>
+        <v>52.68021349665654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9377967993418375</v>
+        <v>1.135599202911059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5577150321369562</v>
+        <v>0.5268021349665655</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5406145936490077</v>
+        <v>0.4845756816585321</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.63122518360885</v>
+        <v>47.49954584382218</v>
       </c>
       <c r="C7" t="n">
-        <v>1.07740420649449</v>
+        <v>1.040536592404048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4963122518360885</v>
+        <v>0.4749954584382218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4726034471073815</v>
+        <v>0.4581981070316609</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.80657272121731</v>
+        <v>73.32995960172666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7421441244737556</v>
+        <v>0.683069468786319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6980657272121731</v>
+        <v>0.7332995960172666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.687305879269232</v>
+        <v>0.7245874965772059</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.81007621173192</v>
+        <v>67.58657081808666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7165012658884129</v>
+        <v>0.7006922886086007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6481007621173194</v>
+        <v>0.6758657081808666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6470260772565435</v>
+        <v>0.6726570725213321</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.63381171117398</v>
+        <v>67.43354181264543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7269856290270884</v>
+        <v>0.7005830702682336</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6863381171117398</v>
+        <v>0.6743354181264544</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6768820598378974</v>
+        <v>0.671724052876122</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.5891054420886</v>
+        <v>61.44784989489528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.857061859468619</v>
+        <v>0.8338085800409317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.605891054420886</v>
+        <v>0.6144784989489528</v>
       </c>
       <c r="E11" t="n">
-        <v>0.599171051775108</v>
+        <v>0.6150813223744287</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.51779859687367</v>
+        <v>60.73945276343221</v>
       </c>
       <c r="C12" t="n">
-        <v>1.029557534555594</v>
+        <v>0.9834776967763901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5751779859687367</v>
+        <v>0.6073945276343221</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5587335690809209</v>
+        <v>0.5812771388628215</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.1823545186377</v>
+        <v>62.31723457815379</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9924998621145884</v>
+        <v>0.8596319377422332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6018235451863772</v>
+        <v>0.6231723457815379</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5782604375906563</v>
+        <v>0.6150006344426525</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.29554753933858</v>
+        <v>57.28025328938831</v>
       </c>
       <c r="C14" t="n">
-        <v>1.069662619630496</v>
+        <v>1.049607277413209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5529554753933857</v>
+        <v>0.5728025328938832</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5230024017006085</v>
+        <v>0.5117848251026039</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49.84368376889073</v>
+        <v>47.55525566830163</v>
       </c>
       <c r="C15" t="n">
-        <v>1.113239463170369</v>
+        <v>1.263586983084679</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4984368376889073</v>
+        <v>0.4755525566830163</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4587267988254592</v>
+        <v>0.4345170519706655</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.28252839557435</v>
+        <v>53.06058010882447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9108281791210174</v>
+        <v>1.014246751368046</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6028252839557435</v>
+        <v>0.5306058010882447</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5967321476678279</v>
+        <v>0.514238247644662</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.30459606051956</v>
+        <v>61.91775015354803</v>
       </c>
       <c r="C17" t="n">
-        <v>1.001004858811696</v>
+        <v>0.8864478881160418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6130459606051956</v>
+        <v>0.6191775015354805</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5975045879798826</v>
+        <v>0.6076711821508983</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.81263678751547</v>
+        <v>62.08090035380928</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9523780792951584</v>
+        <v>0.8985270644227663</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6081263678751546</v>
+        <v>0.6208090035380929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5855512329103247</v>
+        <v>0.5950501178516455</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.08133288350245</v>
+        <v>68.88467893320876</v>
       </c>
       <c r="C19" t="n">
-        <v>0.694402336080869</v>
+        <v>0.7426535377899806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7208133288350245</v>
+        <v>0.6888467893320878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.708545305198245</v>
+        <v>0.6853232429857725</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.42969229837628</v>
+        <v>49.5672972949593</v>
       </c>
       <c r="C20" t="n">
-        <v>1.177041997512182</v>
+        <v>1.202199617028236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5242969229837628</v>
+        <v>0.4956729729495929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5032896917706297</v>
+        <v>0.4796525432622316</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.63977197034576</v>
+        <v>54.68767030856668</v>
       </c>
       <c r="C21" t="n">
-        <v>1.151783196814358</v>
+        <v>0.9999663714319468</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5763977197034575</v>
+        <v>0.5468767030856668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5238689278041992</v>
+        <v>0.5212511556249988</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.31880033564304</v>
+        <v>61.75572453048902</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9560202360153198</v>
+        <v>1.094190678497156</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6331880033564304</v>
+        <v>0.6175572453048902</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6103810044592521</v>
+        <v>0.591456556420073</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45.69719461241014</v>
+        <v>49.43848995233522</v>
       </c>
       <c r="C23" t="n">
-        <v>1.267396882176399</v>
+        <v>1.147128677368164</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4569719461241014</v>
+        <v>0.4943848995233523</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4487367446616733</v>
+        <v>0.4775699455767086</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.19456050657877</v>
+        <v>57.70992828657687</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8532096008459726</v>
+        <v>0.9546535121897856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6119456050657878</v>
+        <v>0.5770992828657687</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6014684049323666</v>
+        <v>0.5592237418910256</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.36127475151169</v>
+        <v>54.24380833744237</v>
       </c>
       <c r="C25" t="n">
-        <v>1.068345847725868</v>
+        <v>1.047370734810829</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5336127475151169</v>
+        <v>0.5424380833744237</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5089655488700362</v>
+        <v>0.524628366647265</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.8494364138098</v>
+        <v>64.53360323186186</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8585656749705473</v>
+        <v>0.868698421617349</v>
       </c>
       <c r="D26" t="n">
-        <v>0.648494364138098</v>
+        <v>0.6453360323186187</v>
       </c>
       <c r="E26" t="n">
-        <v>0.633909695763389</v>
+        <v>0.6337702458705772</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.89433299596017</v>
+        <v>50.11124663708163</v>
       </c>
       <c r="C27" t="n">
-        <v>1.35704163685441</v>
+        <v>1.18072739255925</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4489433299596017</v>
+        <v>0.5011124663708164</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4312219574504826</v>
+        <v>0.4698252070086418</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.94281092396993</v>
+        <v>58.18311577089766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.92230164706707</v>
+        <v>0.9366105819741884</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5894281092396993</v>
+        <v>0.5818311577089768</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5760780454260225</v>
+        <v>0.5660011035951211</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.72209102154864</v>
+        <v>73.57459839617989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6496748730540276</v>
+        <v>0.6248786017298699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7372209102154863</v>
+        <v>0.735745983961799</v>
       </c>
       <c r="E29" t="n">
-        <v>0.731817549099242</v>
+        <v>0.7371427155218925</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.25030493343368</v>
+        <v>76.72436612773467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5556357899132611</v>
+        <v>0.5166879652184434</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7525030493343368</v>
+        <v>0.7672436612773467</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7465003558602349</v>
+        <v>0.7584689683004602</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.03949861157969</v>
+        <v>88.72144222700888</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3614523141334454</v>
+        <v>0.3419870944072803</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8603949861157968</v>
+        <v>0.887214422270089</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8559977132867094</v>
+        <v>0.8849987359625555</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.83387687898109</v>
+        <v>60.63793516091548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9295952674924854</v>
+        <v>0.9101090025688368</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6083387687898107</v>
+        <v>0.6063793516091547</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5898695653261842</v>
+        <v>0.5880241021421984</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.874771541995674</v>
+        <v>9.206381174279361</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2143639799785802</v>
+        <v>0.2044766103641075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08874771541995673</v>
+        <v>0.09206381174279363</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0952448729240313</v>
+        <v>0.1004340663416666</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96568309414441</v>
+        <v>51.43746918225936</v>
       </c>
       <c r="C2" t="n">
-        <v>1.009765740732352</v>
+        <v>1.262008479703218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5296568309414441</v>
+        <v>0.5143746918225937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5109274165101916</v>
+        <v>0.4391877191610077</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.8786667704738</v>
+        <v>43.04855578335453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9801673352718353</v>
+        <v>1.476676664004723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5387866677047379</v>
+        <v>0.4304855578335453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5233228007285744</v>
+        <v>0.3366776679644514</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.45877559494458</v>
+        <v>48.38951894047526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9819157853722572</v>
+        <v>1.264454273382823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5445877559494459</v>
+        <v>0.4838951894047526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5142096606797374</v>
+        <v>0.4400732401598478</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.90089014610853</v>
+        <v>48.51599062275626</v>
       </c>
       <c r="C5" t="n">
-        <v>1.155302342524131</v>
+        <v>1.163821747899056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4290089014610853</v>
+        <v>0.4851599062275625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.373044162169504</v>
+        <v>0.4095567742779322</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.74369155442521</v>
+        <v>52.03522521821124</v>
       </c>
       <c r="C6" t="n">
-        <v>1.024869279066722</v>
+        <v>1.060766385495663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5074369155442521</v>
+        <v>0.5203522521821122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4466470843073414</v>
+        <v>0.4719784465920983</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.75324181005026</v>
+        <v>40.39282346733103</v>
       </c>
       <c r="C7" t="n">
-        <v>1.056521211067835</v>
+        <v>1.265684047341347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4475324181005026</v>
+        <v>0.4039282346733103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.421357346096099</v>
+        <v>0.3522938828904512</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.41094646147458</v>
+        <v>63.14319328021868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8645435955996316</v>
+        <v>0.9851868825964629</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6541094646147458</v>
+        <v>0.6314319328021869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6335617450379447</v>
+        <v>0.6005803769471282</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58.21503646225314</v>
+        <v>59.18796875405496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7909840479493141</v>
+        <v>0.832624227553606</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5821503646225313</v>
+        <v>0.5918796875405496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5678508470099992</v>
+        <v>0.5736449903105079</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.4382131333316</v>
+        <v>59.08788138305695</v>
       </c>
       <c r="C10" t="n">
-        <v>1.263479303941131</v>
+        <v>0.9632691370944182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5743821313333159</v>
+        <v>0.5908788138305695</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5244254494265689</v>
+        <v>0.5686497929882894</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.28765819773528</v>
+        <v>46.37963996228341</v>
       </c>
       <c r="C11" t="n">
-        <v>1.072632273038228</v>
+        <v>1.251212750871976</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4328765819773527</v>
+        <v>0.4637963996228341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4159020590078573</v>
+        <v>0.4199910997886219</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.95510341784964</v>
+        <v>53.47009922231162</v>
       </c>
       <c r="C12" t="n">
-        <v>1.136217952768008</v>
+        <v>1.172353690862656</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4995510341784963</v>
+        <v>0.5347009922231161</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4705345371386486</v>
+        <v>0.5117719995997263</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.25110943866297</v>
+        <v>54.54017768319795</v>
       </c>
       <c r="C13" t="n">
-        <v>1.117254673937957</v>
+        <v>1.089226846396923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4825110943866296</v>
+        <v>0.5454017768319794</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4252109386810788</v>
+        <v>0.5150443949388255</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.04913537314336</v>
+        <v>50.98703275979896</v>
       </c>
       <c r="C14" t="n">
-        <v>1.124542319774628</v>
+        <v>1.187131467461586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5004913537314336</v>
+        <v>0.5098703275979897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4735907238441147</v>
+        <v>0.4648711900631208</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.03971487642627</v>
+        <v>40.932620524399</v>
       </c>
       <c r="C15" t="n">
-        <v>1.220087879896164</v>
+        <v>1.270587470134099</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4103971487642626</v>
+        <v>0.40932620524399</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3919796374793738</v>
+        <v>0.356061590856461</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.29429320322841</v>
+        <v>46.05134992517237</v>
       </c>
       <c r="C16" t="n">
-        <v>1.140366235375404</v>
+        <v>1.338121393322945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.502942932032284</v>
+        <v>0.4605134992517236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4630878145685119</v>
+        <v>0.3904710788900524</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.48133634374</v>
+        <v>51.16592704089136</v>
       </c>
       <c r="C17" t="n">
-        <v>1.072888428966204</v>
+        <v>1.069313252965609</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5248133634373999</v>
+        <v>0.5116592704089136</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4996603506695931</v>
+        <v>0.4855685668480708</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.10975873493716</v>
+        <v>51.1372070692653</v>
       </c>
       <c r="C18" t="n">
-        <v>1.236837750673294</v>
+        <v>1.096467820803324</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3810975873493715</v>
+        <v>0.511372070692653</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3671676101701158</v>
+        <v>0.495809215426353</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.4815958615559</v>
+        <v>59.96496509485377</v>
       </c>
       <c r="C19" t="n">
-        <v>1.074094179769357</v>
+        <v>0.944907245784998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.524815958615559</v>
+        <v>0.5996496509485376</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4867134814817811</v>
+        <v>0.5919354988452001</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.90023270097492</v>
+        <v>46.14468983295703</v>
       </c>
       <c r="C20" t="n">
-        <v>1.368905923763911</v>
+        <v>1.449354869127274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3690023270097492</v>
+        <v>0.4614468983295703</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3345172045659915</v>
+        <v>0.4063070984780559</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40.67163210754418</v>
+        <v>42.81360565402815</v>
       </c>
       <c r="C21" t="n">
-        <v>1.438011278832952</v>
+        <v>1.407174775004387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4067163210754418</v>
+        <v>0.4281360565402815</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3516241969460703</v>
+        <v>0.3808729502034304</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.13103054524694</v>
+        <v>55.92833848043669</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9591845760742824</v>
+        <v>1.069339686632156</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5713103054524693</v>
+        <v>0.5592833848043668</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5561105787150801</v>
+        <v>0.5373887194510615</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.57796347719271</v>
+        <v>34.1679426292615</v>
       </c>
       <c r="C23" t="n">
-        <v>1.536485633254051</v>
+        <v>1.862189208467801</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4257796347719271</v>
+        <v>0.3416794262926149</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3804099798108834</v>
+        <v>0.2706172860218404</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43.21447417365202</v>
+        <v>42.5660256576614</v>
       </c>
       <c r="C24" t="n">
-        <v>1.184790954987208</v>
+        <v>1.43965714275837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4321447417365202</v>
+        <v>0.425660256576614</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4015210685779472</v>
+        <v>0.38029884701012</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.45233955311032</v>
+        <v>38.86305244855059</v>
       </c>
       <c r="C25" t="n">
-        <v>1.303761426607768</v>
+        <v>1.328477178017298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4045233955311032</v>
+        <v>0.3886305244855059</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3891071441184351</v>
+        <v>0.3471992234988492</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.15248401802783</v>
+        <v>55.60333566899368</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9865534861882528</v>
+        <v>0.9842681894699732</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5715248401802784</v>
+        <v>0.5560333566899367</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5457246929759363</v>
+        <v>0.5354550366938478</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.97624546925147</v>
+        <v>47.02410920509693</v>
       </c>
       <c r="C27" t="n">
-        <v>1.346151666839917</v>
+        <v>1.247459165255229</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4397624546925146</v>
+        <v>0.4702410920509693</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4166276198213191</v>
+        <v>0.4109950879204433</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.05604719764012</v>
+        <v>53.09025164577548</v>
       </c>
       <c r="C28" t="n">
-        <v>1.085120530923208</v>
+        <v>1.040173396964868</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4905604719764012</v>
+        <v>0.5309025164577548</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4600879008153519</v>
+        <v>0.4940074316998194</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.76181454856876</v>
+        <v>55.82669400254328</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8139338910579681</v>
+        <v>1.043326342105865</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6576181454856875</v>
+        <v>0.5582669400254328</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6498063023113568</v>
+        <v>0.5305479637766216</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>67.75992871910657</v>
+        <v>69.13295097708458</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6954285154740016</v>
+        <v>0.8058916700421832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6775992871910657</v>
+        <v>0.6913295097708458</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6723522449650474</v>
+        <v>0.676888578042645</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.8174811200789</v>
+        <v>69.28511492313947</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7322617376844087</v>
+        <v>0.8016312827666601</v>
       </c>
       <c r="D31" t="n">
-        <v>0.708174811200789</v>
+        <v>0.6928511492313947</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7012739317080511</v>
+        <v>0.6751069112785564</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.73955080349597</v>
+        <v>51.01045856798068</v>
       </c>
       <c r="C32" t="n">
-        <v>1.092435331913746</v>
+        <v>1.172425223009583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.50739550803496</v>
+        <v>0.5101045856798069</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4789452176779502</v>
+        <v>0.4689950886874479</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.823455269570008</v>
+        <v>8.287712966203168</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1968218433921333</v>
+        <v>0.2239168783553382</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08823455269570007</v>
+        <v>0.08287712966203169</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0953897761745843</v>
+        <v>0.09871053345900822</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.5.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.5.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.69321533923303</v>
+        <v>88.64531700101212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4358946936078913</v>
+        <v>0.3987807899121739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8569321533923304</v>
+        <v>0.8864531700101212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8424471845215615</v>
+        <v>0.8652630679764819</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.06610783830311</v>
+        <v>91.00294985250738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2286028838706746</v>
+        <v>0.2749349935504142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.920661078383031</v>
+        <v>0.9100294985250738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.918888264819629</v>
+        <v>0.9038837420425981</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.66093997352918</v>
+        <v>87.72861356932154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4601332929897278</v>
+        <v>0.4205239060747165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8466093997352917</v>
+        <v>0.8772861356932153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8329481369903524</v>
+        <v>0.8597964135080944</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.29498525073745</v>
+        <v>89.79351032448378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2561563298649465</v>
+        <v>0.2664052534887257</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9029498525073747</v>
+        <v>0.8979351032448377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9027482492533776</v>
+        <v>0.8953279190947298</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.10029498525073</v>
+        <v>93.63195183349337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1834098775929306</v>
+        <v>0.190483097731097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9410029498525073</v>
+        <v>0.9363195183349337</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9406619165688748</v>
+        <v>0.9347684688504072</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.78621787385705</v>
+        <v>89.79385634823831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3387488498740519</v>
+        <v>0.2786611259992545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8678621787385705</v>
+        <v>0.897938563482383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8665984118568639</v>
+        <v>0.8946385134983675</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.96563119058123</v>
+        <v>87.46485696243046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3272476779136923</v>
+        <v>0.2793503434507633</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8696563119058123</v>
+        <v>0.8746485696243047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8593199655700676</v>
+        <v>0.8715405468482814</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.77441846382754</v>
+        <v>90.18789089871021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1617791066585899</v>
+        <v>0.2150329828533965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9277441846382753</v>
+        <v>0.9018789089871019</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9269561144755587</v>
+        <v>0.8985122784546438</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.83480825958702</v>
+        <v>96.34564312840077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136776998048299</v>
+        <v>0.1301483057003376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9383480825958703</v>
+        <v>0.9634564312840077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9354439853457095</v>
+        <v>0.9632201906186676</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.85909912715508</v>
+        <v>89.17975068988486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2107852295332123</v>
+        <v>0.2482826837377312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9185909912715507</v>
+        <v>0.8917975068988486</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9143057152736382</v>
+        <v>0.8943452003378749</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.72323289993858</v>
+        <v>87.7293056168306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4039162870962173</v>
+        <v>0.3485954035034714</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8572323289993857</v>
+        <v>0.877293056168306</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8493955065136554</v>
+        <v>0.8728540593442027</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.62743622349674</v>
+        <v>92.97969705620291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2277260531671345</v>
+        <v>0.2075366474610443</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9162743622349675</v>
+        <v>0.9297969705620291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9146096171894623</v>
+        <v>0.9275191228811817</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99739617124716</v>
+        <v>91.71091445427729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2890095131006092</v>
+        <v>0.1967145366523861</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8899739617124716</v>
+        <v>0.9171091445427729</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8833199752260341</v>
+        <v>0.9107761939477339</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.83862317148072</v>
+        <v>86.90438498602929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3625066644201676</v>
+        <v>0.3191144923989971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8483862317148072</v>
+        <v>0.869043849860293</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8496752865668281</v>
+        <v>0.8658101056809701</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.40516786477392</v>
+        <v>87.49331741624061</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3096228927994767</v>
+        <v>0.3213849828268091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8740516786477391</v>
+        <v>0.8749331741624061</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8610857357444004</v>
+        <v>0.8716571960461831</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.85909912715508</v>
+        <v>89.29350599918685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2097967832766396</v>
+        <v>0.349061437456597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9185909912715509</v>
+        <v>0.8929350599918685</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9154160461696558</v>
+        <v>0.8837937391210348</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.85995553594753</v>
+        <v>91.56792013771745</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2563424834794811</v>
+        <v>0.226552703599494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9085995553594755</v>
+        <v>0.9156792013771746</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9057987445449636</v>
+        <v>0.9098710002438353</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.31129162016973</v>
+        <v>95.57522123893804</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1589475446045981</v>
+        <v>0.1442255721408098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9531129162016972</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9522205512894963</v>
+        <v>0.955039086457275</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.57279042206247</v>
+        <v>89.49921712125538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4060161209393603</v>
+        <v>0.2667875824767786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8457279042206247</v>
+        <v>0.8949921712125537</v>
       </c>
       <c r="E20" t="n">
-        <v>0.841475271035749</v>
+        <v>0.8906020581438785</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.38932862741026</v>
+        <v>79.6562253998737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6606562041056653</v>
+        <v>0.7060086054339384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7638932862741028</v>
+        <v>0.796562253998737</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7434631275158463</v>
+        <v>0.7728289237172168</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.70308566683103</v>
+        <v>84.34458775594945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4126619966855894</v>
+        <v>0.4094732291530818</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8670308566683103</v>
+        <v>0.8434458775594944</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8506096424493663</v>
+        <v>0.8346182165289289</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.22470782619227</v>
+        <v>87.25681018001886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3425394060711066</v>
+        <v>0.3228110038529849</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8622470782619228</v>
+        <v>0.8725681018001886</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8605501949373338</v>
+        <v>0.87088260597595</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.71126047803182</v>
+        <v>90.17941331672419</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217030119847368</v>
+        <v>0.2432844917249592</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9171126047803181</v>
+        <v>0.901794133167242</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9159543728086955</v>
+        <v>0.9001303314014729</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.70206489675516</v>
+        <v>89.52802359882006</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3137297895174319</v>
+        <v>0.2670384838323419</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8870206489675516</v>
+        <v>0.8952802359882005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8846066823545297</v>
+        <v>0.8938464098137127</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.38972655472799</v>
+        <v>88.4957482331162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6361113361916371</v>
+        <v>0.3551522436333471</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8238972655472798</v>
+        <v>0.884957482331162</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7972151622239896</v>
+        <v>0.8739640657924937</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.6236299621969</v>
+        <v>80.61998806218047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7378788965055719</v>
+        <v>0.8404136308294256</v>
       </c>
       <c r="D27" t="n">
-        <v>0.816236299621969</v>
+        <v>0.8061998806218046</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8038363282530916</v>
+        <v>0.791520504059992</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.77320738068669</v>
+        <v>83.74665870812031</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5761505748067672</v>
+        <v>0.6123785255709663</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8277320738068669</v>
+        <v>0.837466587081203</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8138696506394298</v>
+        <v>0.8244740600954714</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.46607669616519</v>
+        <v>98.82005899705015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05226912319894837</v>
+        <v>0.0402913995570998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9846607669616519</v>
+        <v>0.9882005899705014</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9846760227488817</v>
+        <v>0.9882118153682592</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.93805309734515</v>
+        <v>99.1740412979351</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0277619515107934</v>
+        <v>0.02485181406707397</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9893805309734514</v>
+        <v>0.991740412979351</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9893952480634693</v>
+        <v>0.9917403976878492</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.34218289085545</v>
+        <v>96.16519174041298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09861792829304931</v>
+        <v>0.1104831291955558</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9634218289085545</v>
+        <v>0.9616519174041297</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9622017480998464</v>
+        <v>0.9602247054103158</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.01646784718437</v>
+        <v>89.81715239751207</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3146275536523876</v>
+        <v>0.3004921132621924</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8901646784718439</v>
+        <v>0.8981715239751208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8839897619683453</v>
+        <v>0.8923886979649368</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.127877331877397</v>
+        <v>4.512465763814541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171680810030233</v>
+        <v>0.1719123820022032</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05127877331877397</v>
+        <v>0.04512465763814541</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05653000034634502</v>
+        <v>0.04952043115854371</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.2835318644625</v>
+        <v>88.50128461318869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3581694794518019</v>
+        <v>0.3356550787536737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8628353186446249</v>
+        <v>0.8850128461318869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8580203294803261</v>
+        <v>0.8703297901365072</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.97671260132009</v>
+        <v>91.76991150442477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3630031168383235</v>
+        <v>0.2377467323831904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8797671260132007</v>
+        <v>0.9176991150442477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8728611153941113</v>
+        <v>0.9150019962145081</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.39857611225011</v>
+        <v>86.57817109144543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4811505304096499</v>
+        <v>0.372438131289285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.853985761122501</v>
+        <v>0.8657817109144542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8385835012559971</v>
+        <v>0.8535862931340805</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.89880535298748</v>
+        <v>87.99410029498526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4269861757444839</v>
+        <v>0.2932397323117281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8189880535298748</v>
+        <v>0.8799410029498524</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8076722240349568</v>
+        <v>0.8700610981133838</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.97379735118815</v>
+        <v>93.65781710914455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2470731023388605</v>
+        <v>0.1770999992266297</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9097379735118816</v>
+        <v>0.9365781710914455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9086877766533616</v>
+        <v>0.9344783290036697</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.40169032604088</v>
+        <v>80.5613370357875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3612561254451672</v>
+        <v>0.7082074435117344</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8540169032604089</v>
+        <v>0.8056133703578749</v>
       </c>
       <c r="E7" t="n">
-        <v>0.849530973134048</v>
+        <v>0.783198957748261</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.51188159067121</v>
+        <v>87.22783069057691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4161259907123167</v>
+        <v>0.3095259061733183</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8351188159067121</v>
+        <v>0.8722783069057691</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8177399282608711</v>
+        <v>0.8671410282030934</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.41261602609019</v>
+        <v>91.21324578932344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2935543505348809</v>
+        <v>0.2167669824814463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.884126160260902</v>
+        <v>0.9121324578932344</v>
       </c>
       <c r="E9" t="n">
-        <v>0.883447554012516</v>
+        <v>0.9121208318950442</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.59794634901687</v>
+        <v>94.71993702367668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2183593204941644</v>
+        <v>0.1531938809656216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9259794634901686</v>
+        <v>0.9471993702367667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9260021549873449</v>
+        <v>0.9470495828961438</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.94395280235987</v>
+        <v>82.3905916141143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1990108606793607</v>
+        <v>0.6048848075841307</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9094395280235987</v>
+        <v>0.8239059161411431</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9078310090205178</v>
+        <v>0.8087433888386997</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.39562625974273</v>
+        <v>85.54572271386431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4183251211574922</v>
+        <v>0.5504016979287069</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8439562625974274</v>
+        <v>0.855457227138643</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8458708823571964</v>
+        <v>0.8409389882254746</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.52922603136706</v>
+        <v>87.44487409060632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2967855064198375</v>
+        <v>0.3577998490072787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8852922603136705</v>
+        <v>0.8744487409060632</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8789562082321218</v>
+        <v>0.8681095897406808</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.0543084282736</v>
+        <v>88.84955752212389</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2806794085462267</v>
+        <v>0.2857344627244553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.880543084282736</v>
+        <v>0.888495575221239</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8760509641796446</v>
+        <v>0.8845384216598537</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.12787307848683</v>
+        <v>84.45635342866288</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4218040374418099</v>
+        <v>0.3671001278174421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8212787307848683</v>
+        <v>0.8445635342866288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8226744790987549</v>
+        <v>0.8417467814426119</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.68971184871842</v>
+        <v>84.08083114905838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4733485436455035</v>
+        <v>0.4059347801841796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8068971184871842</v>
+        <v>0.8408083114905839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8028164435633766</v>
+        <v>0.8410187896225674</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.15269163228056</v>
+        <v>90.35467434839401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2231456235051155</v>
+        <v>0.2508720492109812</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9115269163228057</v>
+        <v>0.9035467434839403</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9108170843791523</v>
+        <v>0.9013726461434176</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>86.35273661536864</v>
+        <v>89.14765698665214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4170585264610661</v>
+        <v>0.2705171467141554</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8635273661536864</v>
+        <v>0.8914765698665214</v>
       </c>
       <c r="E18" t="n">
-        <v>0.839735827329893</v>
+        <v>0.8862973897971879</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.57328350591268</v>
+        <v>94.77876106194689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2277035467113213</v>
+        <v>0.1676821075583575</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9157328350591267</v>
+        <v>0.947787610619469</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9151499850574052</v>
+        <v>0.94610309877378</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.42034965700395</v>
+        <v>89.97067448680352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4796448478552823</v>
+        <v>0.26203039624282</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8242034965700394</v>
+        <v>0.8997067448680353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8215252096013401</v>
+        <v>0.8961266961583567</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70.60917481985138</v>
+        <v>72.61784271490238</v>
       </c>
       <c r="C21" t="n">
-        <v>0.762914547820886</v>
+        <v>0.7558017141806583</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7060917481985138</v>
+        <v>0.7261784271490238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6821116386496979</v>
+        <v>0.7012627284771074</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.1413766555074</v>
+        <v>83.37961401050183</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5298958367978532</v>
+        <v>0.4850777578540146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.831413766555074</v>
+        <v>0.8337961401050181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8243061924660813</v>
+        <v>0.8230261755391602</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.72600108997483</v>
+        <v>88.55457227138643</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3781552913521106</v>
+        <v>0.3069704718344534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8572600108997482</v>
+        <v>0.8855457227138643</v>
       </c>
       <c r="E23" t="n">
-        <v>0.853688862954791</v>
+        <v>0.8833935120929546</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.1745603335669</v>
+        <v>88.82248116333187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2583551951177167</v>
+        <v>0.2631544725089649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.891745603335669</v>
+        <v>0.8882248116333186</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8909157735446378</v>
+        <v>0.8864128186109805</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.9272744573915</v>
+        <v>86.36398238739091</v>
       </c>
       <c r="C25" t="n">
-        <v>0.47019735876432</v>
+        <v>0.3766594978476253</v>
       </c>
       <c r="D25" t="n">
-        <v>0.829272744573915</v>
+        <v>0.863639823873909</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8232641135736729</v>
+        <v>0.8618889846015361</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.40430280538759</v>
+        <v>89.88217891158229</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3393988446778773</v>
+        <v>0.2775632727624422</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8740430280538758</v>
+        <v>0.8988217891158229</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8599057722296852</v>
+        <v>0.8937303688321971</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.00017301187727</v>
+        <v>78.02982724764055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.810189189473264</v>
+        <v>0.8844765314638305</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8000017301187727</v>
+        <v>0.7802982724764055</v>
       </c>
       <c r="E27" t="n">
-        <v>0.793338199890637</v>
+        <v>0.767076491628532</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.94811373800812</v>
+        <v>81.62241887905604</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6220458823411414</v>
+        <v>0.6563608622847823</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8194811373800812</v>
+        <v>0.8162241887905605</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8042936133213819</v>
+        <v>0.8052139883498892</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.51917404129793</v>
+        <v>98.58407079646017</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09452596761693713</v>
+        <v>0.04654482939925704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9651917404129794</v>
+        <v>0.9858407079646018</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9650043138805074</v>
+        <v>0.9858486041228106</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.21880812117752</v>
+        <v>96.76260175261032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1408633701211026</v>
+        <v>0.07599089499102168</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9421880812117752</v>
+        <v>0.9676260175261031</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9420641758860645</v>
+        <v>0.9675890216468011</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.60471976401179</v>
+        <v>95.04424778761062</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1184207609933907</v>
+        <v>0.1406108917516652</v>
       </c>
       <c r="D31" t="n">
-        <v>0.956047197640118</v>
+        <v>0.9504424778761061</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9549558190925153</v>
+        <v>0.9484221179434617</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.5322998757198</v>
+        <v>87.96357234924179</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3709382153156422</v>
+        <v>0.3532014169649283</v>
       </c>
       <c r="D32" t="n">
-        <v>0.865322998757198</v>
+        <v>0.8796357234924177</v>
       </c>
       <c r="E32" t="n">
-        <v>0.85926073751742</v>
+        <v>0.8730609503197587</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.273109193658199</v>
+        <v>5.557783096995762</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1662002632436945</v>
+        <v>0.1992669123652131</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05273109193658198</v>
+        <v>0.05557783096995763</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05697712770408265</v>
+        <v>0.06089338440962786</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.40255538542721</v>
+        <v>87.90629676727308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3639300663334628</v>
+        <v>0.359317472212327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8540255538542721</v>
+        <v>0.8790629676727308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8492471969156666</v>
+        <v>0.8721921631567552</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.17328004567514</v>
+        <v>88.03242242579952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5040704334814412</v>
+        <v>0.2990552805034289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8117328004567513</v>
+        <v>0.8803242242579954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8028665859335474</v>
+        <v>0.880104769372655</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.30713068452148</v>
+        <v>85.48707168747134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4978628297530425</v>
+        <v>0.470356573243771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8430713068452149</v>
+        <v>0.8548707168747134</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8182239781018582</v>
+        <v>0.8398633559042015</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.06869436586821</v>
+        <v>86.55576605333957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4049311347926657</v>
+        <v>0.3321957730300104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8106869436586821</v>
+        <v>0.8655576605333956</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8082517442450706</v>
+        <v>0.8650361570244349</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.49366343999516</v>
+        <v>87.08051107708545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3589386343024671</v>
+        <v>0.4001851451272765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8749366343999515</v>
+        <v>0.8708051107708543</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8754408954536729</v>
+        <v>0.8687137898860149</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.45146584313014</v>
+        <v>81.90884004186887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5130262058383475</v>
+        <v>0.473430137654456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7945146584313013</v>
+        <v>0.8190884004186888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7886944067366664</v>
+        <v>0.8139854382733305</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.25106618569365</v>
+        <v>85.22625628249379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4149726155480796</v>
+        <v>0.3598197785982241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8325106618569365</v>
+        <v>0.852262562824938</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8161379185869843</v>
+        <v>0.8438157539224415</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.16899800171282</v>
+        <v>88.94168634676771</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3413225305189068</v>
+        <v>0.2578824559963929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8616899800171283</v>
+        <v>0.889416863467677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8613249280759167</v>
+        <v>0.8857648510883495</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.98052751321379</v>
+        <v>89.5313108244881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2897623624619882</v>
+        <v>0.3082487371866591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8898052751321378</v>
+        <v>0.895313108244881</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8890796859393657</v>
+        <v>0.8893741354127979</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.79056047197641</v>
+        <v>90.44282389986071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2588057963022342</v>
+        <v>0.2390500068295902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.887905604719764</v>
+        <v>0.9044282389986072</v>
       </c>
       <c r="E11" t="n">
-        <v>0.876885813438831</v>
+        <v>0.9003248115865967</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.48429484684124</v>
+        <v>86.48984852810145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4151807197447245</v>
+        <v>0.373584403549709</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8448429484684123</v>
+        <v>0.8648984852810144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8464248051345381</v>
+        <v>0.8658999912922754</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.79245495203246</v>
+        <v>88.44176852740941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3199413125868887</v>
+        <v>0.3276249759520093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8779245495203245</v>
+        <v>0.884417685274094</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8764963635722264</v>
+        <v>0.8783264573669159</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.126281369216</v>
+        <v>85.51639720066783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5821594262806078</v>
+        <v>0.4076775604082893</v>
       </c>
       <c r="D14" t="n">
-        <v>0.78126281369216</v>
+        <v>0.8551639720066783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.757446135314421</v>
+        <v>0.8338066524231452</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.94843380998105</v>
+        <v>83.57399285460947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5226388558745384</v>
+        <v>0.3990991992255052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7894843380998106</v>
+        <v>0.8357399285460947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7873843893145481</v>
+        <v>0.8352366431693191</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.65828424121317</v>
+        <v>76.47626709573612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5686242027829091</v>
+        <v>0.685116435905608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7765828424121316</v>
+        <v>0.7647626709573612</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7694370439896037</v>
+        <v>0.7521764492912709</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.88200589970502</v>
+        <v>90.1783752454606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2862675043089742</v>
+        <v>0.2594781920100407</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8988200589970502</v>
+        <v>0.901783752454606</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8940878538677165</v>
+        <v>0.8998008919482228</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.86999022482894</v>
+        <v>88.79938407771694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754524808124188</v>
+        <v>0.252623067973218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8086999022482892</v>
+        <v>0.8879938407771693</v>
       </c>
       <c r="E18" t="n">
-        <v>0.790832141687272</v>
+        <v>0.8864871421388483</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.47527227744185</v>
+        <v>90.42837740810907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2207499861241862</v>
+        <v>0.2863138317828392</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9147527227744184</v>
+        <v>0.9042837740810906</v>
       </c>
       <c r="E19" t="n">
-        <v>0.914896223817842</v>
+        <v>0.9040384194582947</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.09576207406639</v>
+        <v>81.50840405193817</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5815078511989366</v>
+        <v>0.4819252376755078</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8009576207406639</v>
+        <v>0.8150840405193817</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7854605649271095</v>
+        <v>0.8092579932722936</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65.26501094300124</v>
+        <v>69.5135771070684</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9540398876182735</v>
+        <v>0.8386491075779</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6526501094300123</v>
+        <v>0.695135771070684</v>
       </c>
       <c r="E21" t="n">
-        <v>0.629918311161247</v>
+        <v>0.6704259047609833</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.8475765361292</v>
+        <v>82.66732411180027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6358225361754497</v>
+        <v>0.5058170856597524</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7984757653612921</v>
+        <v>0.8266732411180028</v>
       </c>
       <c r="E22" t="n">
-        <v>0.784768832107819</v>
+        <v>0.816689426737442</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.78499814012233</v>
+        <v>83.29008036401699</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4224490500210474</v>
+        <v>0.483856234427852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8578499814012233</v>
+        <v>0.8329008036401699</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8479844743949373</v>
+        <v>0.8278006145538803</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.66420124741563</v>
+        <v>89.52854263445185</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4878387967435022</v>
+        <v>0.2665779694526767</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8166420124741564</v>
+        <v>0.8952854263445186</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8079943382745313</v>
+        <v>0.8945040883138956</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.68487616674885</v>
+        <v>82.77476448758208</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5502112984734897</v>
+        <v>0.490498204731072</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8168487616674884</v>
+        <v>0.8277476448758208</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7929559941577997</v>
+        <v>0.8211354995966218</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.45826520990666</v>
+        <v>88.96928174119152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3673583319061436</v>
+        <v>0.2964533049923678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8545826520990666</v>
+        <v>0.8896928174119154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8437200617535281</v>
+        <v>0.8818727099378727</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.11780378722999</v>
+        <v>74.8285019766607</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7967480225895998</v>
+        <v>0.9817409370851238</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7811780378722999</v>
+        <v>0.748285019766607</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7715425130741547</v>
+        <v>0.739599206528229</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.10244898312268</v>
+        <v>80.69057690810475</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9921409766810635</v>
+        <v>0.6018445832810054</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7310244898312269</v>
+        <v>0.8069057690810475</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7144511083401112</v>
+        <v>0.8025739869114277</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.1048019446535</v>
+        <v>97.64011799410029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1372021576874734</v>
+        <v>0.07260405040494031</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9510480194465349</v>
+        <v>0.976401179941003</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9513856730632864</v>
+        <v>0.9763690809682878</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>92.09543335149958</v>
+        <v>96.55092172077613</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172218112938026</v>
+        <v>0.08839042140593467</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9209543335149958</v>
+        <v>0.9655092172077613</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9198729693519651</v>
+        <v>0.9655194594817044</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.45357658803277</v>
+        <v>95.28023598820059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1956871590135051</v>
+        <v>0.1453525703922878</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9345357658803277</v>
+        <v>0.9528023598820059</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9299048233833007</v>
+        <v>0.9491548838280357</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83.56665715101342</v>
+        <v>86.14199084767171</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4543953759631466</v>
+        <v>0.3914922911425258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8356665715101342</v>
+        <v>0.861419908476717</v>
       </c>
       <c r="E32" t="n">
-        <v>0.826770592470518</v>
+        <v>0.8556616909202182</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.178586779959415</v>
+        <v>5.89647549844586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2012739305446379</v>
+        <v>0.1936311644520834</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06178586779959415</v>
+        <v>0.05896475498445859</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06684782853454367</v>
+        <v>0.06286808805010885</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.88319968165816</v>
+        <v>80.18460367304216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6088564481430997</v>
+        <v>0.5816803871343532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7788319968165814</v>
+        <v>0.8018460367304214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7731888437526778</v>
+        <v>0.7914501801930218</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.6232060830976</v>
+        <v>78.96158271265323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7439436685255107</v>
+        <v>0.5842302885527413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.726232060830976</v>
+        <v>0.7896158271265322</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7133432412658646</v>
+        <v>0.7809521533858993</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.15179197051877</v>
+        <v>81.71402866806807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5478740263419846</v>
+        <v>0.501133550623005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7715179197051878</v>
+        <v>0.8171402866806806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7651817930777236</v>
+        <v>0.7992452429179264</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.88814782134793</v>
+        <v>73.27615290789711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7004121284931898</v>
+        <v>0.6242738359762977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6988814782134793</v>
+        <v>0.7327615290789712</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6735128150230336</v>
+        <v>0.7263376010497407</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.92723120442218</v>
+        <v>78.94981790499918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5332769597570102</v>
+        <v>0.5719383320460717</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7792723120442219</v>
+        <v>0.7894981790499918</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7780991844173496</v>
+        <v>0.7881941402406201</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.55827472555991</v>
+        <v>75.67651969307693</v>
       </c>
       <c r="C7" t="n">
-        <v>1.043280724994838</v>
+        <v>0.6171542833248774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6655827472555991</v>
+        <v>0.7567651969307694</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6488878262392856</v>
+        <v>0.7497133465941506</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.39937196688552</v>
+        <v>81.71748890561337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5254992335181062</v>
+        <v>0.489736699545756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7739937196688553</v>
+        <v>0.8171748890561338</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7599078442149066</v>
+        <v>0.8108976583629453</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.87413385928944</v>
+        <v>81.60260901910917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5012102152143295</v>
+        <v>0.5048106718886023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7987413385928944</v>
+        <v>0.8160260901910916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7858550736584589</v>
+        <v>0.8139922618795647</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.19553802368532</v>
+        <v>84.40098962793795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4032407688365008</v>
+        <v>0.3670972074864646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8419553802368533</v>
+        <v>0.8440098962793796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8383619551547875</v>
+        <v>0.8467626501037913</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.73603577885622</v>
+        <v>82.2177527487262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3319757188747948</v>
+        <v>0.4893048113493327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8573603577885622</v>
+        <v>0.822177527487262</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8565817767305663</v>
+        <v>0.8161404496136747</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.94914315867784</v>
+        <v>82.36161212467235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5267853206334014</v>
+        <v>0.4944474993196006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8094914315867785</v>
+        <v>0.8236161212467236</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8112664847056751</v>
+        <v>0.8237289138696748</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.02598638396526</v>
+        <v>84.25522712134189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.425860209390521</v>
+        <v>0.4053679751853149</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8402598638396526</v>
+        <v>0.8425522712134187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8402169061906047</v>
+        <v>0.8421320525404334</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.15975916746685</v>
+        <v>75.49918251887992</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9901846264178553</v>
+        <v>0.6613844947268566</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6815975916746685</v>
+        <v>0.7549918251887993</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6420086448163241</v>
+        <v>0.7454116317595981</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.50346456284224</v>
+        <v>72.52986617531295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7655681115885576</v>
+        <v>0.7226503772040208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7050346456284224</v>
+        <v>0.7252986617531294</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6922965659318281</v>
+        <v>0.7132733791379999</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.01986176351006</v>
+        <v>71.5659305011289</v>
       </c>
       <c r="C16" t="n">
-        <v>1.023773617235323</v>
+        <v>0.7604845826824506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6601986176351007</v>
+        <v>0.715659305011289</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6420385758910139</v>
+        <v>0.7034258969472775</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.40482184101938</v>
+        <v>87.11035562591371</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3111515431432054</v>
+        <v>0.3709601662859011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8740482184101939</v>
+        <v>0.8711035562591372</v>
       </c>
       <c r="E17" t="n">
-        <v>0.870320067535461</v>
+        <v>0.8677053242017454</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.94213617764861</v>
+        <v>78.49375859652766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7150328904467946</v>
+        <v>0.5884752433514222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.709421361776486</v>
+        <v>0.7849375859652765</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6949950196614756</v>
+        <v>0.7740791417893998</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.83618370401128</v>
+        <v>86.81848458896704</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4818653836846352</v>
+        <v>0.338287451461656</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8283618370401129</v>
+        <v>0.8681848458896703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8284158723101802</v>
+        <v>0.8637638356036611</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.60554157042881</v>
+        <v>76.11380721286517</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7162679300953945</v>
+        <v>0.6486363197366396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7060554157042882</v>
+        <v>0.7611380721286516</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7024815401919617</v>
+        <v>0.7477570854994375</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.18454311888511</v>
+        <v>65.78698777671087</v>
       </c>
       <c r="C21" t="n">
-        <v>1.002756660462668</v>
+        <v>0.9567177762277425</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6318454311888512</v>
+        <v>0.6578698777671088</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6165504575025752</v>
+        <v>0.632820548010491</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.2701320945683</v>
+        <v>73.59164006609055</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6596822505195935</v>
+        <v>0.7271065400292476</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7727013209456829</v>
+        <v>0.7359164006609054</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7645649875682943</v>
+        <v>0.7222823192921901</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.22395522452616</v>
+        <v>75.55904462841374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7967842434843382</v>
+        <v>0.6192246780730783</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6922395522452616</v>
+        <v>0.7555904462841374</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6750072068623629</v>
+        <v>0.7446363823454967</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.85368385539667</v>
+        <v>83.57364683085493</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6792935439695915</v>
+        <v>0.4039138469612226</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7585368385539667</v>
+        <v>0.8357364683085494</v>
       </c>
       <c r="E24" t="n">
-        <v>0.74406526377926</v>
+        <v>0.8332143194267921</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.81274059464182</v>
+        <v>75.84918554658778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6551383773485819</v>
+        <v>0.6027120338131985</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7281274059464182</v>
+        <v>0.7584918554658777</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7166254459086716</v>
+        <v>0.7488789780225023</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.49606830508915</v>
+        <v>80.18529572055122</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6156710636879628</v>
+        <v>0.5519146636206036</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7549606830508914</v>
+        <v>0.8018529572055121</v>
       </c>
       <c r="E26" t="n">
-        <v>0.74731333365069</v>
+        <v>0.7863105421216117</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.33502884973053</v>
+        <v>73.55452901841711</v>
       </c>
       <c r="C27" t="n">
-        <v>1.072642534909149</v>
+        <v>1.010863798577339</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6933502884973054</v>
+        <v>0.7355452901841711</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6768717903062764</v>
+        <v>0.7290982330513791</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.89707523421484</v>
+        <v>75.87435877472988</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8709534402936697</v>
+        <v>0.7381477744939426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7189707523421482</v>
+        <v>0.7587435877472989</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7084762682805298</v>
+        <v>0.7451782657912065</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.21375617436136</v>
+        <v>92.12493187657333</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2511867070958639</v>
+        <v>0.2150835861762365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9021375617436137</v>
+        <v>0.9212493187657333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9017409927524953</v>
+        <v>0.9215054020135943</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.85474787844186</v>
+        <v>86.28508897135789</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244482156005688</v>
+        <v>0.3908114553265781</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8885474787844185</v>
+        <v>0.8628508897135788</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8847928311052284</v>
+        <v>0.8593177986940888</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.49054057561052</v>
+        <v>94.30799574390782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1243500975254089</v>
+        <v>0.1799134211369771</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9649054057561053</v>
+        <v>0.9430799574390782</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9646371748545661</v>
+        <v>0.940560701244429</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.71053671167857</v>
+        <v>79.67141584269758</v>
       </c>
       <c r="C32" t="n">
-        <v>0.628966686687919</v>
+        <v>0.5572821250772509</v>
       </c>
       <c r="D32" t="n">
-        <v>0.767105367116786</v>
+        <v>0.796714158426976</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7572535261113377</v>
+        <v>0.7889588811901448</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.942588429971915</v>
+        <v>6.119786485938277</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2476212197644804</v>
+        <v>0.1828361335212236</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07942588429971917</v>
+        <v>0.06119786485938276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08593304217998574</v>
+        <v>0.0655445393858053</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.64645022880822</v>
+        <v>72.79033555653595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7629820713152488</v>
+        <v>0.6863372591634592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6964645022880821</v>
+        <v>0.7279033555653596</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6764277103874431</v>
+        <v>0.7208750221842002</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.20530454415696</v>
+        <v>75.25255408783813</v>
       </c>
       <c r="C3" t="n">
-        <v>1.09652971815085</v>
+        <v>0.605478328334478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6320530454415696</v>
+        <v>0.7525255408783813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.615879697697343</v>
+        <v>0.7491235736177726</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.18335798752585</v>
+        <v>77.38881824237234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5859886648133397</v>
+        <v>0.5410214661620557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7618335798752585</v>
+        <v>0.7738881824237234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7554013957993349</v>
+        <v>0.7711160669412681</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.52841287554391</v>
+        <v>61.3213782126143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7353833657999834</v>
+        <v>1.041774888336658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6452841287554391</v>
+        <v>0.613213782126143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6250747454748955</v>
+        <v>0.5730735141163145</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.29072050796287</v>
+        <v>71.88159067119958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7995011201749246</v>
+        <v>0.7818750783801078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6729072050796288</v>
+        <v>0.7188159067119958</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6571407458687736</v>
+        <v>0.7153345021391377</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.70068945233091</v>
+        <v>64.15513975034386</v>
       </c>
       <c r="C7" t="n">
-        <v>1.023924245685339</v>
+        <v>0.9371598253647487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.597006894523309</v>
+        <v>0.6415513975034386</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5788450790686815</v>
+        <v>0.6254097244186113</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.5694166904558</v>
+        <v>77.48509935207052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6493479307352876</v>
+        <v>0.5503429773564373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.745694166904558</v>
+        <v>0.7748509935207052</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7294240789822802</v>
+        <v>0.7669028165272849</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.61436517616934</v>
+        <v>78.24548655265184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6585319578414783</v>
+        <v>0.4953991579823196</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7061436517616935</v>
+        <v>0.7824548655265184</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6943414911601951</v>
+        <v>0.7830464004271849</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.3071047327399</v>
+        <v>77.98432512391976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4559805728960782</v>
+        <v>0.5169148126617074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.813071047327399</v>
+        <v>0.7798432512391976</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8055068738505821</v>
+        <v>0.781200948945791</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.1415150650092</v>
+        <v>80.79360548101627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6322607088834047</v>
+        <v>0.4533207558483506</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7914151506500922</v>
+        <v>0.8079360548101627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7819059900632171</v>
+        <v>0.8071911055918364</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.42646562686528</v>
+        <v>71.84032733847178</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8676715819785992</v>
+        <v>0.7548049186666806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6942646562686529</v>
+        <v>0.7184032733847179</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6897527779889043</v>
+        <v>0.7173714278850627</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.93677280945337</v>
+        <v>79.54324864401941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8032722294330596</v>
+        <v>0.5256554414828618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7093677280945336</v>
+        <v>0.7954324864401942</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7022721678264192</v>
+        <v>0.7959299437081873</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.36344605057137</v>
+        <v>66.28794366733277</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9527194159726301</v>
+        <v>0.9711449231952429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6436344605057137</v>
+        <v>0.6628794366733276</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6197228498393828</v>
+        <v>0.6389773512502749</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.93028486405592</v>
+        <v>64.72313774340608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9431273822983106</v>
+        <v>0.9209893504778544</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6093028486405592</v>
+        <v>0.6472313774340608</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5870817670515469</v>
+        <v>0.6344406945727641</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.63411448195918</v>
+        <v>63.33480393429009</v>
       </c>
       <c r="C16" t="n">
-        <v>0.918625182658434</v>
+        <v>1.009879375994206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6363411448195919</v>
+        <v>0.633348039342901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6303235041169412</v>
+        <v>0.6071090410386317</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.68498862446907</v>
+        <v>81.66506630680196</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7492581326514482</v>
+        <v>0.4768682105466723</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7468498862446907</v>
+        <v>0.8166506630680196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7318023870212984</v>
+        <v>0.8108218035446606</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.36720040830804</v>
+        <v>72.27666329293507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7315545665100217</v>
+        <v>0.7922518914875886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6836720040830804</v>
+        <v>0.7227666329293506</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6633094053126044</v>
+        <v>0.6842125731404897</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.27170650265141</v>
+        <v>78.50370677947042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4810314528644085</v>
+        <v>0.5800948254143198</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7927170650265141</v>
+        <v>0.7850370677947041</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7869043387259566</v>
+        <v>0.7795083677446646</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.82362304172182</v>
+        <v>63.74882135658613</v>
       </c>
       <c r="C20" t="n">
-        <v>1.003466234107812</v>
+        <v>0.9700521714985371</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6082362304172182</v>
+        <v>0.6374882135658613</v>
       </c>
       <c r="E20" t="n">
-        <v>0.594045398824893</v>
+        <v>0.6159031415485068</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60.98807083106256</v>
+        <v>61.28063391551829</v>
       </c>
       <c r="C21" t="n">
-        <v>1.202027730084956</v>
+        <v>1.246688208791117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6098807083106255</v>
+        <v>0.612806339155183</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5698142464254865</v>
+        <v>0.5690826039807625</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.10124655057569</v>
+        <v>67.30880024913711</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7685782052576542</v>
+        <v>0.9239028150836626</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7410124655057569</v>
+        <v>0.673088002491371</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7265169166354946</v>
+        <v>0.6644229138844031</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.84387408195573</v>
+        <v>65.72003218020917</v>
       </c>
       <c r="C23" t="n">
-        <v>1.040207255631685</v>
+        <v>0.9167711297671</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6184387408195573</v>
+        <v>0.6572003218020918</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5946772077604519</v>
+        <v>0.6394675643149352</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.05910950786772</v>
+        <v>72.17398074377806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6462750611205895</v>
+        <v>0.6857675895715752</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7305910950786771</v>
+        <v>0.7217398074377807</v>
       </c>
       <c r="E24" t="n">
-        <v>0.724280549854754</v>
+        <v>0.7201481169246925</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.63412313255306</v>
+        <v>70.99196359830103</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8407259990771612</v>
+        <v>0.746692351748546</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6463412313255306</v>
+        <v>0.7099196359830102</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6422644258287222</v>
+        <v>0.6986052346930621</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.7587435877473</v>
+        <v>70.88244707999203</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7547136244674524</v>
+        <v>0.7778985112905502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.707587435877473</v>
+        <v>0.7088244707999204</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6931983226997143</v>
+        <v>0.6878832475912946</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.38862792930735</v>
+        <v>62.32873986799194</v>
       </c>
       <c r="C27" t="n">
-        <v>1.029362263592581</v>
+        <v>1.219896257292324</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6538862792930734</v>
+        <v>0.6232873986799194</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6394073027046738</v>
+        <v>0.6090388771417018</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.24996756027301</v>
+        <v>70.78339778025762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8284911042079329</v>
+        <v>0.8547928071270385</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6624996756027302</v>
+        <v>0.7078339778025762</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6429436523636475</v>
+        <v>0.6947631315424508</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.69924480315574</v>
+        <v>85.05203332208757</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4433175662222008</v>
+        <v>0.372278984139363</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8269924480315574</v>
+        <v>0.8505203332208756</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8257378807865337</v>
+        <v>0.8518368743320682</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.20385124438792</v>
+        <v>86.29425860085294</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3556952650185849</v>
+        <v>0.3340578261607637</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8520385124438793</v>
+        <v>0.8629425860085295</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8455754275777914</v>
+        <v>0.8615648458467848</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.01768181385651</v>
+        <v>94.75479891694565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1898961942759342</v>
+        <v>0.1524026786636871</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9401768181385652</v>
+        <v>0.9475479891694565</v>
       </c>
       <c r="E31" t="n">
-        <v>0.939873946461487</v>
+        <v>0.946550723460162</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.58568269045004</v>
+        <v>72.8931046116316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7650148934575799</v>
+        <v>0.7280838272663338</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7058568269045001</v>
+        <v>0.728931046116316</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6923150761386483</v>
+        <v>0.7173637384351655</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.182706785787929</v>
+        <v>8.086446056824538</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2275004188333745</v>
+        <v>0.257318093069262</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08182706785787931</v>
+        <v>0.08086446056824539</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0874214371025373</v>
+        <v>0.09003266987101448</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.16283012828831</v>
+        <v>65.75091480030105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8186831666777531</v>
+        <v>0.7971499999364217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6316283012828831</v>
+        <v>0.6575091480030104</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6015603203829528</v>
+        <v>0.6348503219643823</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.26634313445618</v>
+        <v>62.95556189932439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8944242383042971</v>
+        <v>0.9729007291297117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5926634313445618</v>
+        <v>0.6295556189932439</v>
       </c>
       <c r="E3" t="n">
-        <v>0.587005796755493</v>
+        <v>0.61624912551655</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.81020597063989</v>
+        <v>69.23450894903935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9368501799801985</v>
+        <v>0.6750958525886138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5981020597063988</v>
+        <v>0.6923450894903935</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5662745035025221</v>
+        <v>0.6866940515026119</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.83359717644616</v>
+        <v>58.69877767108712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9457445035378138</v>
+        <v>0.8632100294033686</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5383359717644616</v>
+        <v>0.5869877767108712</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5102069838924319</v>
+        <v>0.5567021830539529</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.68021349665654</v>
+        <v>60.02655732316024</v>
       </c>
       <c r="C6" t="n">
-        <v>1.135599202911059</v>
+        <v>0.9290145665407181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5268021349665655</v>
+        <v>0.6002655732316023</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4845756816585321</v>
+        <v>0.5774925850441043</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.49954584382218</v>
+        <v>49.00258652756512</v>
       </c>
       <c r="C7" t="n">
-        <v>1.040536592404048</v>
+        <v>1.074670996765296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4749954584382218</v>
+        <v>0.4900258652756512</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4581981070316609</v>
+        <v>0.4700468827947185</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.32995960172666</v>
+        <v>71.23080649486587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.683069468786319</v>
+        <v>0.7888842324765089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7332995960172666</v>
+        <v>0.7123080649486587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7245874965772059</v>
+        <v>0.7068008661311402</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.58657081808666</v>
+        <v>68.73389908217199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7006922886086007</v>
+        <v>0.612748171761632</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6758657081808666</v>
+        <v>0.6873389908217199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6726570725213321</v>
+        <v>0.6799860405357616</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.43354181264543</v>
+        <v>72.73185754202026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7005830702682336</v>
+        <v>0.6112696251521508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6743354181264544</v>
+        <v>0.7273185754202026</v>
       </c>
       <c r="E10" t="n">
-        <v>0.671724052876122</v>
+        <v>0.7251359843521733</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.44784989489528</v>
+        <v>66.42427702661789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8338085800409317</v>
+        <v>0.7930385669072469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6144784989489528</v>
+        <v>0.6642427702661788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6150813223744287</v>
+        <v>0.6598576001619983</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.73945276343221</v>
+        <v>64.51284180659002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9834776967763901</v>
+        <v>0.9084953442215919</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6073945276343221</v>
+        <v>0.6451284180659003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5812771388628215</v>
+        <v>0.6320021895990593</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.31723457815379</v>
+        <v>65.72712566717705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8596319377422332</v>
+        <v>0.854487935702006</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6231723457815379</v>
+        <v>0.6572712566717704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6150006344426525</v>
+        <v>0.6440829291734771</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.28025328938831</v>
+        <v>57.35750309258731</v>
       </c>
       <c r="C14" t="n">
-        <v>1.049607277413209</v>
+        <v>0.9637496237953502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5728025328938832</v>
+        <v>0.5735750309258731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5117848251026039</v>
+        <v>0.5449636213935841</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.55525566830163</v>
+        <v>50.52647514251853</v>
       </c>
       <c r="C15" t="n">
-        <v>1.263586983084679</v>
+        <v>1.17147568166256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4755525566830163</v>
+        <v>0.5052647514251853</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4345170519706655</v>
+        <v>0.4779937703218798</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.06058010882447</v>
+        <v>53.25963027361829</v>
       </c>
       <c r="C16" t="n">
-        <v>1.014246751368046</v>
+        <v>1.114738869170348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5306058010882447</v>
+        <v>0.5325963027361829</v>
       </c>
       <c r="E16" t="n">
-        <v>0.514238247644662</v>
+        <v>0.5153907375150567</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.91775015354803</v>
+        <v>66.46320469900259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8864478881160418</v>
+        <v>0.8345891286929449</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6191775015354805</v>
+        <v>0.6646320469900259</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6076711821508983</v>
+        <v>0.6562855961023241</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.08090035380928</v>
+        <v>64.20998451543699</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8985270644227663</v>
+        <v>0.8393528883655866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6208090035380929</v>
+        <v>0.6420998451543698</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5950501178516455</v>
+        <v>0.635417594947087</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.88467893320876</v>
+        <v>71.14118634244241</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7426535377899806</v>
+        <v>0.7524128787219524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6888467893320878</v>
+        <v>0.7114118634244241</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6853232429857725</v>
+        <v>0.7011654398561404</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.5672972949593</v>
+        <v>54.30669815482834</v>
       </c>
       <c r="C20" t="n">
-        <v>1.202199617028236</v>
+        <v>1.121088889241219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4956729729495929</v>
+        <v>0.5430669815482834</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4796525432622316</v>
+        <v>0.5182016822833049</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.68767030856668</v>
+        <v>56.59988408204223</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999663714319468</v>
+        <v>1.167089711378018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5468767030856668</v>
+        <v>0.5659988408204224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5212511556249988</v>
+        <v>0.5056650052541093</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.75572453048902</v>
+        <v>65.43387053521225</v>
       </c>
       <c r="C22" t="n">
-        <v>1.094190678497156</v>
+        <v>0.9293279476463795</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6175572453048902</v>
+        <v>0.6543387053521224</v>
       </c>
       <c r="E22" t="n">
-        <v>0.591456556420073</v>
+        <v>0.6399516604910543</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.43848995233522</v>
+        <v>43.36300487028434</v>
       </c>
       <c r="C23" t="n">
-        <v>1.147128677368164</v>
+        <v>1.286575937271118</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4943848995233523</v>
+        <v>0.4336300487028435</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4775699455767086</v>
+        <v>0.4214987789438244</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.70992828657687</v>
+        <v>59.95302727532245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9546535121897856</v>
+        <v>1.014787344634533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5770992828657687</v>
+        <v>0.5995302727532245</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5592237418910256</v>
+        <v>0.5768028215403279</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.24380833744237</v>
+        <v>55.26708708552842</v>
       </c>
       <c r="C25" t="n">
-        <v>1.047370734810829</v>
+        <v>1.058298113942146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5424380833744237</v>
+        <v>0.5526708708552842</v>
       </c>
       <c r="E25" t="n">
-        <v>0.524628366647265</v>
+        <v>0.5402094105027461</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.53360323186186</v>
+        <v>67.0309431742489</v>
       </c>
       <c r="C26" t="n">
-        <v>0.868698421617349</v>
+        <v>0.7744499012827873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6453360323186187</v>
+        <v>0.6703094317424891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6337702458705772</v>
+        <v>0.6678432214515351</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.11124663708163</v>
+        <v>51.5561553300634</v>
       </c>
       <c r="C27" t="n">
-        <v>1.18072739255925</v>
+        <v>1.35484463032335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5011124663708164</v>
+        <v>0.515561553300634</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4698252070086418</v>
+        <v>0.5154215448441588</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.18311577089766</v>
+        <v>59.94939402589988</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9366105819741884</v>
+        <v>0.9649040654301644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5818311577089768</v>
+        <v>0.5994939402589987</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5660011035951211</v>
+        <v>0.5795464846021365</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.57459839617989</v>
+        <v>76.34002024238964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6248786017298699</v>
+        <v>0.597751435637474</v>
       </c>
       <c r="D29" t="n">
-        <v>0.735745983961799</v>
+        <v>0.7634002024238964</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7371427155218925</v>
+        <v>0.7602135106633716</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.72436612773467</v>
+        <v>73.54994420366958</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5166879652184434</v>
+        <v>0.5447022571849327</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7672436612773467</v>
+        <v>0.7354994420366958</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7584689683004602</v>
+        <v>0.7119358827572893</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.72144222700888</v>
+        <v>87.15179197051877</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3419870944072803</v>
+        <v>0.3476332413653532</v>
       </c>
       <c r="D31" t="n">
-        <v>0.887214422270089</v>
+        <v>0.8715179197051878</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8849987359625555</v>
+        <v>0.8654270275279428</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.63793516091548</v>
+        <v>62.9496506601845</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9101090025688368</v>
+        <v>0.8906246198777161</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6063793516091547</v>
+        <v>0.6294965066018448</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5880241021421984</v>
+        <v>0.6141278183609268</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.206381174279361</v>
+        <v>9.045606019172958</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2044766103641075</v>
+        <v>0.223627562792869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09206381174279363</v>
+        <v>0.09045606019172958</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1004340663416666</v>
+        <v>0.09591757126364173</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.43746918225936</v>
+        <v>56.00697237865379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.262008479703218</v>
+        <v>1.255784595664591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5143746918225937</v>
+        <v>0.560069723786538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4391877191610077</v>
+        <v>0.5059772303188643</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.04855578335453</v>
+        <v>44.85419424043461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.476676664004723</v>
+        <v>1.337882752964894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4304855578335453</v>
+        <v>0.448541942404346</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3366776679644514</v>
+        <v>0.4016244384122506</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.38951894047526</v>
+        <v>51.64127717367798</v>
       </c>
       <c r="C4" t="n">
-        <v>1.264454273382823</v>
+        <v>1.196614687641462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4838951894047526</v>
+        <v>0.5164127717367797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4400732401598478</v>
+        <v>0.4821452942335024</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.51599062275626</v>
+        <v>54.87019783908165</v>
       </c>
       <c r="C5" t="n">
-        <v>1.163821747899056</v>
+        <v>0.9297856450080871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4851599062275625</v>
+        <v>0.5487019783908165</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4095567742779322</v>
+        <v>0.5405755931379791</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.03522521821124</v>
+        <v>50.9553715862594</v>
       </c>
       <c r="C6" t="n">
-        <v>1.060766385495663</v>
+        <v>1.208188445617755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5203522521821122</v>
+        <v>0.5095537158625939</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4719784465920983</v>
+        <v>0.44255403316938</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.39282346733103</v>
+        <v>40.71505808873779</v>
       </c>
       <c r="C7" t="n">
-        <v>1.265684047341347</v>
+        <v>1.272867030153672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4039282346733103</v>
+        <v>0.4071505808873779</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3522938828904512</v>
+        <v>0.3490220837206041</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.14319328021868</v>
+        <v>66.83708336577305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9851868825964629</v>
+        <v>0.849310036492534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6314319328021869</v>
+        <v>0.6683708336577305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6005803769471282</v>
+        <v>0.6461264478526639</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.18796875405496</v>
+        <v>61.60148444190694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.832624227553606</v>
+        <v>0.7971032332008083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5918796875405496</v>
+        <v>0.6160148444190694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5736449903105079</v>
+        <v>0.5852286165691415</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.08788138305695</v>
+        <v>57.25040874056005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9632691370944182</v>
+        <v>1.299635227645437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5908788138305695</v>
+        <v>0.5725040874056004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5686497929882894</v>
+        <v>0.5444006220123236</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.37963996228341</v>
+        <v>50.36401698976634</v>
       </c>
       <c r="C11" t="n">
-        <v>1.251212750871976</v>
+        <v>1.078735579053561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4637963996228341</v>
+        <v>0.5036401698976635</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4199910997886219</v>
+        <v>0.4845356449366982</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.47009922231162</v>
+        <v>53.74337148245227</v>
       </c>
       <c r="C12" t="n">
-        <v>1.172353690862656</v>
+        <v>1.008519590894381</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5347009922231161</v>
+        <v>0.5374337148245227</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5117719995997263</v>
+        <v>0.5050618983879688</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.54017768319795</v>
+        <v>50.29239007257848</v>
       </c>
       <c r="C13" t="n">
-        <v>1.089226846396923</v>
+        <v>1.089837473630905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5454017768319794</v>
+        <v>0.5029239007257849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5150443949388255</v>
+        <v>0.4688104477283745</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.98703275979896</v>
+        <v>51.67951279855362</v>
       </c>
       <c r="C14" t="n">
-        <v>1.187131467461586</v>
+        <v>1.093430698414644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5098703275979897</v>
+        <v>0.5167951279855363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4648711900631208</v>
+        <v>0.4817281382216024</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.932620524399</v>
+        <v>47.75742004688622</v>
       </c>
       <c r="C15" t="n">
-        <v>1.270587470134099</v>
+        <v>1.232603432734807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.40932620524399</v>
+        <v>0.4775742004688622</v>
       </c>
       <c r="E15" t="n">
-        <v>0.356061590856461</v>
+        <v>0.42946132754335</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.05134992517237</v>
+        <v>50.3432555644945</v>
       </c>
       <c r="C16" t="n">
-        <v>1.338121393322945</v>
+        <v>1.005120945970217</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4605134992517236</v>
+        <v>0.503432555644945</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3904710788900524</v>
+        <v>0.4912067345303214</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.16592704089136</v>
+        <v>53.32935406015623</v>
       </c>
       <c r="C17" t="n">
-        <v>1.069313252965609</v>
+        <v>1.057896836598714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5116592704089136</v>
+        <v>0.5332935406015623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4855685668480708</v>
+        <v>0.5200568600197573</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51.1372070692653</v>
+        <v>47.28924990700612</v>
       </c>
       <c r="C18" t="n">
-        <v>1.096467820803324</v>
+        <v>1.187130235135555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.511372070692653</v>
+        <v>0.4728924990700611</v>
       </c>
       <c r="E18" t="n">
-        <v>0.495809215426353</v>
+        <v>0.4293296206597985</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.96496509485377</v>
+        <v>62.28669798181645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.944907245784998</v>
+        <v>0.8693660060564676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5996496509485376</v>
+        <v>0.6228669798181645</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5919354988452001</v>
+        <v>0.616916878098913</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.14468983295703</v>
+        <v>46.90940233046999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.449354869127274</v>
+        <v>1.139352828760942</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4614468983295703</v>
+        <v>0.4690940233046999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4063070984780559</v>
+        <v>0.4195237301116813</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.81360565402815</v>
+        <v>43.58177838908641</v>
       </c>
       <c r="C21" t="n">
-        <v>1.407174775004387</v>
+        <v>1.555089098028839</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4281360565402815</v>
+        <v>0.4358177838908641</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3808729502034304</v>
+        <v>0.353209140823561</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.92833848043669</v>
+        <v>60.06686909056307</v>
       </c>
       <c r="C22" t="n">
-        <v>1.069339686632156</v>
+        <v>0.9696461347242196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5592833848043668</v>
+        <v>0.6006686909056307</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5373887194510615</v>
+        <v>0.5800132785683892</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.1679426292615</v>
+        <v>47.79366603517332</v>
       </c>
       <c r="C23" t="n">
-        <v>1.862189208467801</v>
+        <v>1.606440585851669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3416794262926149</v>
+        <v>0.4779366603517332</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2706172860218404</v>
+        <v>0.4298544434513166</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.5660256576614</v>
+        <v>44.87002482720439</v>
       </c>
       <c r="C24" t="n">
-        <v>1.43965714275837</v>
+        <v>1.149130221207937</v>
       </c>
       <c r="D24" t="n">
-        <v>0.425660256576614</v>
+        <v>0.4487002482720439</v>
       </c>
       <c r="E24" t="n">
-        <v>0.38029884701012</v>
+        <v>0.4301179343427856</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.86305244855059</v>
+        <v>41.71610481059525</v>
       </c>
       <c r="C25" t="n">
-        <v>1.328477178017298</v>
+        <v>1.257536085446676</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3886305244855059</v>
+        <v>0.4171610481059525</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3471992234988492</v>
+        <v>0.3952964222999426</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.60333566899368</v>
+        <v>60.7590031055632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9842681894699732</v>
+        <v>1.028608172138532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5560333566899367</v>
+        <v>0.607590031055632</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5354550366938478</v>
+        <v>0.5755590639223833</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.02410920509693</v>
+        <v>52.20512288168582</v>
       </c>
       <c r="C27" t="n">
-        <v>1.247459165255229</v>
+        <v>1.308657693862915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4702410920509693</v>
+        <v>0.5220512288168583</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4109950879204433</v>
+        <v>0.5064803094081414</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.09025164577548</v>
+        <v>50.56029896452392</v>
       </c>
       <c r="C28" t="n">
-        <v>1.040173396964868</v>
+        <v>1.164214836557706</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5309025164577548</v>
+        <v>0.5056029896452391</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4940074316998194</v>
+        <v>0.4643144028483136</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.82669400254328</v>
+        <v>61.86281888251629</v>
       </c>
       <c r="C29" t="n">
-        <v>1.043326342105865</v>
+        <v>0.9771485726038615</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5582669400254328</v>
+        <v>0.6186281888251629</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5305479637766216</v>
+        <v>0.6017719958731249</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.13295097708458</v>
+        <v>71.5169681398628</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8058916700421832</v>
+        <v>0.8630951250592866</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6913295097708458</v>
+        <v>0.715169681398628</v>
       </c>
       <c r="E30" t="n">
-        <v>0.676888578042645</v>
+        <v>0.6773557540544484</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.28511492313947</v>
+        <v>65.22262303307122</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8016312827666601</v>
+        <v>1.265008524463823</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6928511492313947</v>
+        <v>0.6522262303307123</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6751069112785564</v>
+        <v>0.615433275546621</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.01045856798068</v>
+        <v>53.29606657497037</v>
       </c>
       <c r="C32" t="n">
-        <v>1.172425223009583</v>
+        <v>1.135124677719497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5101045856798069</v>
+        <v>0.5329606657497037</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4689950886874479</v>
+        <v>0.4991230553601401</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.287712966203168</v>
+        <v>7.573381912501009</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2239168783553382</v>
+        <v>0.1894604830100127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08287712966203169</v>
+        <v>0.07573381912501011</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09871053345900822</v>
+        <v>0.0839411943554272</v>
       </c>
     </row>
   </sheetData>
